--- a/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9831814612098587</v>
+        <v>0.9831814612098578</v>
       </c>
       <c r="D2">
-        <v>1.004791010663094</v>
+        <v>1.004791010663093</v>
       </c>
       <c r="E2">
-        <v>0.9917896338526936</v>
+        <v>0.9917896338526926</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -436,13 +436,13 @@
         <v>1.038948053068496</v>
       </c>
       <c r="J2">
-        <v>1.005877118318681</v>
+        <v>1.00587711831868</v>
       </c>
       <c r="K2">
-        <v>1.016184000204961</v>
+        <v>1.01618400020496</v>
       </c>
       <c r="L2">
-        <v>1.00336454974203</v>
+        <v>1.003364549742029</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,25 +453,25 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9902712653802597</v>
+        <v>0.9902712653802594</v>
       </c>
       <c r="D3">
         <v>1.009939696883114</v>
       </c>
       <c r="E3">
-        <v>0.9976144650389004</v>
+        <v>0.9976144650388999</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041058287014593</v>
+        <v>1.041058287014592</v>
       </c>
       <c r="J3">
-        <v>1.011030705458546</v>
+        <v>1.011030705458545</v>
       </c>
       <c r="K3">
-        <v>1.020446957726046</v>
+        <v>1.020446957726045</v>
       </c>
       <c r="L3">
         <v>1.008277960504855</v>
@@ -485,13 +485,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9947202413218181</v>
+        <v>0.9947202413218178</v>
       </c>
       <c r="D4">
-        <v>1.013171530733549</v>
+        <v>1.013171530733548</v>
       </c>
       <c r="E4">
-        <v>1.001276795346997</v>
+        <v>1.001276795346996</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -517,7 +517,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.996559193966074</v>
+        <v>0.9965591939660744</v>
       </c>
       <c r="D5">
         <v>1.014507485151255</v>
@@ -538,7 +538,7 @@
         <v>1.02421362404195</v>
       </c>
       <c r="L5">
-        <v>1.012633299589955</v>
+        <v>1.012633299589956</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -549,25 +549,25 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9968661702399303</v>
+        <v>0.9968661702399297</v>
       </c>
       <c r="D6">
-        <v>1.01473049820323</v>
+        <v>1.014730498203229</v>
       </c>
       <c r="E6">
-        <v>1.003045276893354</v>
+        <v>1.003045276893353</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04299097127092</v>
+        <v>1.042990971270919</v>
       </c>
       <c r="J6">
-        <v>1.015816113452601</v>
+        <v>1.0158161134526</v>
       </c>
       <c r="K6">
-        <v>1.024397132013278</v>
+        <v>1.024397132013277</v>
       </c>
       <c r="L6">
         <v>1.012845852954807</v>
@@ -581,13 +581,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9947449346143632</v>
+        <v>0.9947449346143629</v>
       </c>
       <c r="D7">
-        <v>1.013189469582355</v>
+        <v>1.013189469582354</v>
       </c>
       <c r="E7">
-        <v>1.001297137968652</v>
+        <v>1.001297137968651</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -613,28 +613,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9856073147675471</v>
+        <v>0.9856073147675496</v>
       </c>
       <c r="D8">
-        <v>1.006552409316065</v>
+        <v>1.006552409316067</v>
       </c>
       <c r="E8">
-        <v>0.9937810943966192</v>
+        <v>0.993781094396621</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039673621029555</v>
+        <v>1.039673621029556</v>
       </c>
       <c r="J8">
-        <v>1.007641418615782</v>
+        <v>1.007641418615785</v>
       </c>
       <c r="K8">
-        <v>1.017644349584551</v>
+        <v>1.017644349584553</v>
       </c>
       <c r="L8">
-        <v>1.005045968925902</v>
+        <v>1.005045968925904</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +645,28 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9683552815490918</v>
+        <v>0.9683552815490942</v>
       </c>
       <c r="D9">
-        <v>0.9940357098336675</v>
+        <v>0.9940357098336698</v>
       </c>
       <c r="E9">
-        <v>0.9796536284952827</v>
+        <v>0.9796536284952848</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034443869662007</v>
+        <v>1.034443869662008</v>
       </c>
       <c r="J9">
-        <v>0.9950772084936993</v>
+        <v>0.9950772084937017</v>
       </c>
       <c r="K9">
-        <v>1.007226300392849</v>
+        <v>1.007226300392851</v>
       </c>
       <c r="L9">
-        <v>0.9930856687083118</v>
+        <v>0.9930856687083141</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,13 +677,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9559404968372809</v>
+        <v>0.9559404968372807</v>
       </c>
       <c r="D10">
-        <v>0.9850485030304954</v>
+        <v>0.9850485030304957</v>
       </c>
       <c r="E10">
-        <v>0.9695380989013211</v>
+        <v>0.9695380989013207</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -692,13 +692,13 @@
         <v>1.030595524219796</v>
       </c>
       <c r="J10">
-        <v>0.9860182319750378</v>
+        <v>0.9860182319750376</v>
       </c>
       <c r="K10">
-        <v>0.9996930626899652</v>
+        <v>0.9996930626899653</v>
       </c>
       <c r="L10">
-        <v>0.9844800309392596</v>
+        <v>0.9844800309392595</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,13 +709,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9503113535797226</v>
+        <v>0.9503113535797242</v>
       </c>
       <c r="D11">
-        <v>0.9809808653704853</v>
+        <v>0.9809808653704867</v>
       </c>
       <c r="E11">
-        <v>0.9649655759822512</v>
+        <v>0.9649655759822525</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>1.028831961370565</v>
       </c>
       <c r="J11">
-        <v>0.981907992494117</v>
+        <v>0.9819079924941184</v>
       </c>
       <c r="K11">
-        <v>0.9962705942759409</v>
+        <v>0.9962705942759422</v>
       </c>
       <c r="L11">
-        <v>0.9805798802741845</v>
+        <v>0.9805798802741859</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +741,28 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9481787275554058</v>
+        <v>0.9481787275554076</v>
       </c>
       <c r="D12">
-        <v>0.9794411800774341</v>
+        <v>0.9794411800774355</v>
       </c>
       <c r="E12">
-        <v>0.9632355671141897</v>
+        <v>0.9632355671141911</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02816117333781</v>
+        <v>1.028161173337811</v>
       </c>
       <c r="J12">
-        <v>0.9803505476217138</v>
+        <v>0.9803505476217154</v>
       </c>
       <c r="K12">
-        <v>0.9949731460601627</v>
+        <v>0.9949731460601642</v>
       </c>
       <c r="L12">
-        <v>0.9791027178704823</v>
+        <v>0.9791027178704838</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9486381342603432</v>
+        <v>0.9486381342603428</v>
       </c>
       <c r="D13">
-        <v>0.9797727909249857</v>
+        <v>0.9797727909249854</v>
       </c>
       <c r="E13">
-        <v>0.9636081350135823</v>
+        <v>0.9636081350135819</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.028305790663385</v>
       </c>
       <c r="J13">
-        <v>0.9806860591561565</v>
+        <v>0.980686059156156</v>
       </c>
       <c r="K13">
-        <v>0.995252674569174</v>
+        <v>0.9952526745691739</v>
       </c>
       <c r="L13">
-        <v>0.9794209038392772</v>
+        <v>0.9794209038392768</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,13 +805,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9501359436859478</v>
+        <v>0.9501359436859467</v>
       </c>
       <c r="D14">
-        <v>0.980854196188594</v>
+        <v>0.9808541961885933</v>
       </c>
       <c r="E14">
-        <v>0.9648232335475557</v>
+        <v>0.9648232335475549</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1.028776841536683</v>
       </c>
       <c r="J14">
-        <v>0.9817798960717007</v>
+        <v>0.9817798960717</v>
       </c>
       <c r="K14">
-        <v>0.9961638940464593</v>
+        <v>0.9961638940464587</v>
       </c>
       <c r="L14">
-        <v>0.9804583731119192</v>
+        <v>0.9804583731119184</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,28 +837,28 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9510531494354478</v>
+        <v>0.9510531494354469</v>
       </c>
       <c r="D15">
-        <v>0.9815165969551148</v>
+        <v>0.9815165969551142</v>
       </c>
       <c r="E15">
-        <v>0.9655676270628525</v>
+        <v>0.9655676270628517</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02906495225763</v>
+        <v>1.029064952257629</v>
       </c>
       <c r="J15">
-        <v>0.982449693303818</v>
+        <v>0.982449693303817</v>
       </c>
       <c r="K15">
-        <v>0.9967217892571525</v>
+        <v>0.9967217892571517</v>
       </c>
       <c r="L15">
-        <v>0.9810937436330822</v>
+        <v>0.9810937436330814</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,28 +869,28 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9563084451856748</v>
+        <v>0.956308445185673</v>
       </c>
       <c r="D16">
-        <v>0.9853145564637488</v>
+        <v>0.9853145564637472</v>
       </c>
       <c r="E16">
-        <v>0.9698372885526714</v>
+        <v>0.9698372885526699</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030710425855321</v>
+        <v>1.030710425855319</v>
       </c>
       <c r="J16">
-        <v>0.9862868532260266</v>
+        <v>0.9862868532260248</v>
       </c>
       <c r="K16">
-        <v>0.9999166475282636</v>
+        <v>0.9999166475282621</v>
       </c>
       <c r="L16">
-        <v>0.9847350141773804</v>
+        <v>0.9847350141773789</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -901,13 +901,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9595346769008194</v>
+        <v>0.9595346769008191</v>
       </c>
       <c r="D17">
-        <v>0.9876482142811555</v>
+        <v>0.9876482142811551</v>
       </c>
       <c r="E17">
-        <v>0.9724622416315472</v>
+        <v>0.9724622416315469</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1.031715817787439</v>
       </c>
       <c r="J17">
-        <v>0.9886418803323818</v>
+        <v>0.9886418803323811</v>
       </c>
       <c r="K17">
-        <v>1.001876337506963</v>
+        <v>1.001876337506962</v>
       </c>
       <c r="L17">
-        <v>0.9869709729263697</v>
+        <v>0.9869709729263694</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -933,13 +933,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9613922973239744</v>
+        <v>0.9613922973239739</v>
       </c>
       <c r="D18">
-        <v>0.9889925763665292</v>
+        <v>0.988992576366529</v>
       </c>
       <c r="E18">
-        <v>0.9739749621736893</v>
+        <v>0.9739749621736888</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -948,13 +948,13 @@
         <v>1.032292949833068</v>
       </c>
       <c r="J18">
-        <v>0.9899976100642162</v>
+        <v>0.9899976100642159</v>
       </c>
       <c r="K18">
-        <v>1.00300405640293</v>
+        <v>1.003004056402929</v>
       </c>
       <c r="L18">
-        <v>0.9882585696963874</v>
+        <v>0.9882585696963869</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,13 +965,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.962021698192291</v>
+        <v>0.9620216981922909</v>
       </c>
       <c r="D19">
-        <v>0.9894481817973084</v>
+        <v>0.9894481817973083</v>
       </c>
       <c r="E19">
-        <v>0.9744877201996035</v>
+        <v>0.9744877201996032</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -980,13 +980,13 @@
         <v>1.032488191856016</v>
       </c>
       <c r="J19">
-        <v>0.9904569112487847</v>
+        <v>0.9904569112487844</v>
       </c>
       <c r="K19">
         <v>1.003386037023606</v>
       </c>
       <c r="L19">
-        <v>0.9886948578717463</v>
+        <v>0.988694857871746</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,13 +997,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9591910591660735</v>
+        <v>0.9591910591660725</v>
       </c>
       <c r="D20">
-        <v>0.9873995906149309</v>
+        <v>0.9873995906149302</v>
       </c>
       <c r="E20">
-        <v>0.9721825272577057</v>
+        <v>0.9721825272577049</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>1.031608917912155</v>
       </c>
       <c r="J20">
-        <v>0.9883910787554121</v>
+        <v>0.9883910787554113</v>
       </c>
       <c r="K20">
-        <v>1.001667681641635</v>
+        <v>1.001667681641634</v>
       </c>
       <c r="L20">
-        <v>0.9867328087872864</v>
+        <v>0.9867328087872858</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9496960591952071</v>
+        <v>0.9496960591952079</v>
       </c>
       <c r="D21">
-        <v>0.9805365640311065</v>
+        <v>0.980536564031107</v>
       </c>
       <c r="E21">
-        <v>0.9644663119079617</v>
+        <v>0.9644663119079625</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1044,13 +1044,13 @@
         <v>1.028638572517762</v>
       </c>
       <c r="J21">
-        <v>0.9814586583230179</v>
+        <v>0.9814586583230188</v>
       </c>
       <c r="K21">
-        <v>0.9958963036353614</v>
+        <v>0.995896303635362</v>
       </c>
       <c r="L21">
-        <v>0.98015367070478</v>
+        <v>0.9801536707047808</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9434826734280403</v>
+        <v>0.9434826734280415</v>
       </c>
       <c r="D22">
-        <v>0.9760535925648864</v>
+        <v>0.9760535925648873</v>
       </c>
       <c r="E22">
-        <v>0.9594305821129629</v>
+        <v>0.9594305821129637</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1076,13 +1076,13 @@
         <v>1.026679369092926</v>
       </c>
       <c r="J22">
-        <v>0.9769207335417641</v>
+        <v>0.976920733541765</v>
       </c>
       <c r="K22">
-        <v>0.9921148413231465</v>
+        <v>0.9921148413231474</v>
       </c>
       <c r="L22">
-        <v>0.9758509687104449</v>
+        <v>0.9758509687104456</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9468009330091387</v>
+        <v>0.9468009330091395</v>
       </c>
       <c r="D23">
-        <v>0.9784468745549285</v>
+        <v>0.9784468745549288</v>
       </c>
       <c r="E23">
-        <v>0.9621185637662948</v>
+        <v>0.9621185637662952</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.027727078203134</v>
       </c>
       <c r="J23">
-        <v>0.979344297227782</v>
+        <v>0.9793442972277828</v>
       </c>
       <c r="K23">
-        <v>0.9941347126207249</v>
+        <v>0.9941347126207254</v>
       </c>
       <c r="L23">
-        <v>0.978148529876308</v>
+        <v>0.9781485298763084</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,13 +1125,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.959346399702368</v>
+        <v>0.9593463997023677</v>
       </c>
       <c r="D24">
-        <v>0.9875119847578924</v>
+        <v>0.9875119847578918</v>
       </c>
       <c r="E24">
-        <v>0.9723089747156274</v>
+        <v>0.9723089747156268</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>1.031657250008987</v>
       </c>
       <c r="J24">
-        <v>0.988504460376381</v>
+        <v>0.9885044603763802</v>
       </c>
       <c r="K24">
-        <v>1.001762011482183</v>
+        <v>1.001762011482182</v>
       </c>
       <c r="L24">
-        <v>0.9868404760352305</v>
+        <v>0.9868404760352298</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,13 +1157,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9729651042348511</v>
+        <v>0.9729651042348515</v>
       </c>
       <c r="D25">
-        <v>0.99737761611109</v>
+        <v>0.9973776161110905</v>
       </c>
       <c r="E25">
-        <v>0.9834205242834466</v>
+        <v>0.9834205242834467</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1172,13 +1172,13 @@
         <v>1.035856180405078</v>
       </c>
       <c r="J25">
-        <v>0.9984378577203543</v>
+        <v>0.9984378577203544</v>
       </c>
       <c r="K25">
-        <v>1.0100167780739</v>
+        <v>1.010016778073901</v>
       </c>
       <c r="L25">
-        <v>0.9962817858887359</v>
+        <v>0.9962817858887362</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9831814612098578</v>
+        <v>0.9831814612098587</v>
       </c>
       <c r="D2">
-        <v>1.004791010663093</v>
+        <v>1.004791010663094</v>
       </c>
       <c r="E2">
-        <v>0.9917896338526926</v>
+        <v>0.9917896338526936</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -436,13 +436,13 @@
         <v>1.038948053068496</v>
       </c>
       <c r="J2">
-        <v>1.00587711831868</v>
+        <v>1.005877118318681</v>
       </c>
       <c r="K2">
-        <v>1.01618400020496</v>
+        <v>1.016184000204961</v>
       </c>
       <c r="L2">
-        <v>1.003364549742029</v>
+        <v>1.00336454974203</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,25 +453,25 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9902712653802594</v>
+        <v>0.9902712653802597</v>
       </c>
       <c r="D3">
         <v>1.009939696883114</v>
       </c>
       <c r="E3">
-        <v>0.9976144650388999</v>
+        <v>0.9976144650389004</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041058287014592</v>
+        <v>1.041058287014593</v>
       </c>
       <c r="J3">
-        <v>1.011030705458545</v>
+        <v>1.011030705458546</v>
       </c>
       <c r="K3">
-        <v>1.020446957726045</v>
+        <v>1.020446957726046</v>
       </c>
       <c r="L3">
         <v>1.008277960504855</v>
@@ -485,13 +485,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9947202413218178</v>
+        <v>0.9947202413218181</v>
       </c>
       <c r="D4">
-        <v>1.013171530733548</v>
+        <v>1.013171530733549</v>
       </c>
       <c r="E4">
-        <v>1.001276795346996</v>
+        <v>1.001276795346997</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -517,7 +517,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9965591939660744</v>
+        <v>0.996559193966074</v>
       </c>
       <c r="D5">
         <v>1.014507485151255</v>
@@ -538,7 +538,7 @@
         <v>1.02421362404195</v>
       </c>
       <c r="L5">
-        <v>1.012633299589956</v>
+        <v>1.012633299589955</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -549,25 +549,25 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9968661702399297</v>
+        <v>0.9968661702399303</v>
       </c>
       <c r="D6">
-        <v>1.014730498203229</v>
+        <v>1.01473049820323</v>
       </c>
       <c r="E6">
-        <v>1.003045276893353</v>
+        <v>1.003045276893354</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042990971270919</v>
+        <v>1.04299097127092</v>
       </c>
       <c r="J6">
-        <v>1.0158161134526</v>
+        <v>1.015816113452601</v>
       </c>
       <c r="K6">
-        <v>1.024397132013277</v>
+        <v>1.024397132013278</v>
       </c>
       <c r="L6">
         <v>1.012845852954807</v>
@@ -581,13 +581,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9947449346143629</v>
+        <v>0.9947449346143632</v>
       </c>
       <c r="D7">
-        <v>1.013189469582354</v>
+        <v>1.013189469582355</v>
       </c>
       <c r="E7">
-        <v>1.001297137968651</v>
+        <v>1.001297137968652</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -613,28 +613,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9856073147675496</v>
+        <v>0.9856073147675471</v>
       </c>
       <c r="D8">
-        <v>1.006552409316067</v>
+        <v>1.006552409316065</v>
       </c>
       <c r="E8">
-        <v>0.993781094396621</v>
+        <v>0.9937810943966192</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039673621029556</v>
+        <v>1.039673621029555</v>
       </c>
       <c r="J8">
-        <v>1.007641418615785</v>
+        <v>1.007641418615782</v>
       </c>
       <c r="K8">
-        <v>1.017644349584553</v>
+        <v>1.017644349584551</v>
       </c>
       <c r="L8">
-        <v>1.005045968925904</v>
+        <v>1.005045968925902</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +645,28 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9683552815490942</v>
+        <v>0.9683552815490918</v>
       </c>
       <c r="D9">
-        <v>0.9940357098336698</v>
+        <v>0.9940357098336675</v>
       </c>
       <c r="E9">
-        <v>0.9796536284952848</v>
+        <v>0.9796536284952827</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034443869662008</v>
+        <v>1.034443869662007</v>
       </c>
       <c r="J9">
-        <v>0.9950772084937017</v>
+        <v>0.9950772084936993</v>
       </c>
       <c r="K9">
-        <v>1.007226300392851</v>
+        <v>1.007226300392849</v>
       </c>
       <c r="L9">
-        <v>0.9930856687083141</v>
+        <v>0.9930856687083118</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,13 +677,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9559404968372807</v>
+        <v>0.9559404968372809</v>
       </c>
       <c r="D10">
-        <v>0.9850485030304957</v>
+        <v>0.9850485030304954</v>
       </c>
       <c r="E10">
-        <v>0.9695380989013207</v>
+        <v>0.9695380989013211</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -692,13 +692,13 @@
         <v>1.030595524219796</v>
       </c>
       <c r="J10">
-        <v>0.9860182319750376</v>
+        <v>0.9860182319750378</v>
       </c>
       <c r="K10">
-        <v>0.9996930626899653</v>
+        <v>0.9996930626899652</v>
       </c>
       <c r="L10">
-        <v>0.9844800309392595</v>
+        <v>0.9844800309392596</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,13 +709,13 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9503113535797242</v>
+        <v>0.9503113535797226</v>
       </c>
       <c r="D11">
-        <v>0.9809808653704867</v>
+        <v>0.9809808653704853</v>
       </c>
       <c r="E11">
-        <v>0.9649655759822525</v>
+        <v>0.9649655759822512</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>1.028831961370565</v>
       </c>
       <c r="J11">
-        <v>0.9819079924941184</v>
+        <v>0.981907992494117</v>
       </c>
       <c r="K11">
-        <v>0.9962705942759422</v>
+        <v>0.9962705942759409</v>
       </c>
       <c r="L11">
-        <v>0.9805798802741859</v>
+        <v>0.9805798802741845</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +741,28 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9481787275554076</v>
+        <v>0.9481787275554058</v>
       </c>
       <c r="D12">
-        <v>0.9794411800774355</v>
+        <v>0.9794411800774341</v>
       </c>
       <c r="E12">
-        <v>0.9632355671141911</v>
+        <v>0.9632355671141897</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028161173337811</v>
+        <v>1.02816117333781</v>
       </c>
       <c r="J12">
-        <v>0.9803505476217154</v>
+        <v>0.9803505476217138</v>
       </c>
       <c r="K12">
-        <v>0.9949731460601642</v>
+        <v>0.9949731460601627</v>
       </c>
       <c r="L12">
-        <v>0.9791027178704838</v>
+        <v>0.9791027178704823</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9486381342603428</v>
+        <v>0.9486381342603432</v>
       </c>
       <c r="D13">
-        <v>0.9797727909249854</v>
+        <v>0.9797727909249857</v>
       </c>
       <c r="E13">
-        <v>0.9636081350135819</v>
+        <v>0.9636081350135823</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.028305790663385</v>
       </c>
       <c r="J13">
-        <v>0.980686059156156</v>
+        <v>0.9806860591561565</v>
       </c>
       <c r="K13">
-        <v>0.9952526745691739</v>
+        <v>0.995252674569174</v>
       </c>
       <c r="L13">
-        <v>0.9794209038392768</v>
+        <v>0.9794209038392772</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,13 +805,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9501359436859467</v>
+        <v>0.9501359436859478</v>
       </c>
       <c r="D14">
-        <v>0.9808541961885933</v>
+        <v>0.980854196188594</v>
       </c>
       <c r="E14">
-        <v>0.9648232335475549</v>
+        <v>0.9648232335475557</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -820,13 +820,13 @@
         <v>1.028776841536683</v>
       </c>
       <c r="J14">
-        <v>0.9817798960717</v>
+        <v>0.9817798960717007</v>
       </c>
       <c r="K14">
-        <v>0.9961638940464587</v>
+        <v>0.9961638940464593</v>
       </c>
       <c r="L14">
-        <v>0.9804583731119184</v>
+        <v>0.9804583731119192</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,28 +837,28 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9510531494354469</v>
+        <v>0.9510531494354478</v>
       </c>
       <c r="D15">
-        <v>0.9815165969551142</v>
+        <v>0.9815165969551148</v>
       </c>
       <c r="E15">
-        <v>0.9655676270628517</v>
+        <v>0.9655676270628525</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029064952257629</v>
+        <v>1.02906495225763</v>
       </c>
       <c r="J15">
-        <v>0.982449693303817</v>
+        <v>0.982449693303818</v>
       </c>
       <c r="K15">
-        <v>0.9967217892571517</v>
+        <v>0.9967217892571525</v>
       </c>
       <c r="L15">
-        <v>0.9810937436330814</v>
+        <v>0.9810937436330822</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,28 +869,28 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.956308445185673</v>
+        <v>0.9563084451856748</v>
       </c>
       <c r="D16">
-        <v>0.9853145564637472</v>
+        <v>0.9853145564637488</v>
       </c>
       <c r="E16">
-        <v>0.9698372885526699</v>
+        <v>0.9698372885526714</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030710425855319</v>
+        <v>1.030710425855321</v>
       </c>
       <c r="J16">
-        <v>0.9862868532260248</v>
+        <v>0.9862868532260266</v>
       </c>
       <c r="K16">
-        <v>0.9999166475282621</v>
+        <v>0.9999166475282636</v>
       </c>
       <c r="L16">
-        <v>0.9847350141773789</v>
+        <v>0.9847350141773804</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -901,13 +901,13 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9595346769008191</v>
+        <v>0.9595346769008194</v>
       </c>
       <c r="D17">
-        <v>0.9876482142811551</v>
+        <v>0.9876482142811555</v>
       </c>
       <c r="E17">
-        <v>0.9724622416315469</v>
+        <v>0.9724622416315472</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>1.031715817787439</v>
       </c>
       <c r="J17">
-        <v>0.9886418803323811</v>
+        <v>0.9886418803323818</v>
       </c>
       <c r="K17">
-        <v>1.001876337506962</v>
+        <v>1.001876337506963</v>
       </c>
       <c r="L17">
-        <v>0.9869709729263694</v>
+        <v>0.9869709729263697</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -933,13 +933,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9613922973239739</v>
+        <v>0.9613922973239744</v>
       </c>
       <c r="D18">
-        <v>0.988992576366529</v>
+        <v>0.9889925763665292</v>
       </c>
       <c r="E18">
-        <v>0.9739749621736888</v>
+        <v>0.9739749621736893</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -948,13 +948,13 @@
         <v>1.032292949833068</v>
       </c>
       <c r="J18">
-        <v>0.9899976100642159</v>
+        <v>0.9899976100642162</v>
       </c>
       <c r="K18">
-        <v>1.003004056402929</v>
+        <v>1.00300405640293</v>
       </c>
       <c r="L18">
-        <v>0.9882585696963869</v>
+        <v>0.9882585696963874</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,13 +965,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9620216981922909</v>
+        <v>0.962021698192291</v>
       </c>
       <c r="D19">
-        <v>0.9894481817973083</v>
+        <v>0.9894481817973084</v>
       </c>
       <c r="E19">
-        <v>0.9744877201996032</v>
+        <v>0.9744877201996035</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -980,13 +980,13 @@
         <v>1.032488191856016</v>
       </c>
       <c r="J19">
-        <v>0.9904569112487844</v>
+        <v>0.9904569112487847</v>
       </c>
       <c r="K19">
         <v>1.003386037023606</v>
       </c>
       <c r="L19">
-        <v>0.988694857871746</v>
+        <v>0.9886948578717463</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,13 +997,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9591910591660725</v>
+        <v>0.9591910591660735</v>
       </c>
       <c r="D20">
-        <v>0.9873995906149302</v>
+        <v>0.9873995906149309</v>
       </c>
       <c r="E20">
-        <v>0.9721825272577049</v>
+        <v>0.9721825272577057</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1012,13 +1012,13 @@
         <v>1.031608917912155</v>
       </c>
       <c r="J20">
-        <v>0.9883910787554113</v>
+        <v>0.9883910787554121</v>
       </c>
       <c r="K20">
-        <v>1.001667681641634</v>
+        <v>1.001667681641635</v>
       </c>
       <c r="L20">
-        <v>0.9867328087872858</v>
+        <v>0.9867328087872864</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9496960591952079</v>
+        <v>0.9496960591952071</v>
       </c>
       <c r="D21">
-        <v>0.980536564031107</v>
+        <v>0.9805365640311065</v>
       </c>
       <c r="E21">
-        <v>0.9644663119079625</v>
+        <v>0.9644663119079617</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1044,13 +1044,13 @@
         <v>1.028638572517762</v>
       </c>
       <c r="J21">
-        <v>0.9814586583230188</v>
+        <v>0.9814586583230179</v>
       </c>
       <c r="K21">
-        <v>0.995896303635362</v>
+        <v>0.9958963036353614</v>
       </c>
       <c r="L21">
-        <v>0.9801536707047808</v>
+        <v>0.98015367070478</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9434826734280415</v>
+        <v>0.9434826734280403</v>
       </c>
       <c r="D22">
-        <v>0.9760535925648873</v>
+        <v>0.9760535925648864</v>
       </c>
       <c r="E22">
-        <v>0.9594305821129637</v>
+        <v>0.9594305821129629</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1076,13 +1076,13 @@
         <v>1.026679369092926</v>
       </c>
       <c r="J22">
-        <v>0.976920733541765</v>
+        <v>0.9769207335417641</v>
       </c>
       <c r="K22">
-        <v>0.9921148413231474</v>
+        <v>0.9921148413231465</v>
       </c>
       <c r="L22">
-        <v>0.9758509687104456</v>
+        <v>0.9758509687104449</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9468009330091395</v>
+        <v>0.9468009330091387</v>
       </c>
       <c r="D23">
-        <v>0.9784468745549288</v>
+        <v>0.9784468745549285</v>
       </c>
       <c r="E23">
-        <v>0.9621185637662952</v>
+        <v>0.9621185637662948</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.027727078203134</v>
       </c>
       <c r="J23">
-        <v>0.9793442972277828</v>
+        <v>0.979344297227782</v>
       </c>
       <c r="K23">
-        <v>0.9941347126207254</v>
+        <v>0.9941347126207249</v>
       </c>
       <c r="L23">
-        <v>0.9781485298763084</v>
+        <v>0.978148529876308</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,13 +1125,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9593463997023677</v>
+        <v>0.959346399702368</v>
       </c>
       <c r="D24">
-        <v>0.9875119847578918</v>
+        <v>0.9875119847578924</v>
       </c>
       <c r="E24">
-        <v>0.9723089747156268</v>
+        <v>0.9723089747156274</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>1.031657250008987</v>
       </c>
       <c r="J24">
-        <v>0.9885044603763802</v>
+        <v>0.988504460376381</v>
       </c>
       <c r="K24">
-        <v>1.001762011482182</v>
+        <v>1.001762011482183</v>
       </c>
       <c r="L24">
-        <v>0.9868404760352298</v>
+        <v>0.9868404760352305</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,13 +1157,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9729651042348515</v>
+        <v>0.9729651042348511</v>
       </c>
       <c r="D25">
-        <v>0.9973776161110905</v>
+        <v>0.99737761611109</v>
       </c>
       <c r="E25">
-        <v>0.9834205242834467</v>
+        <v>0.9834205242834466</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1172,13 +1172,13 @@
         <v>1.035856180405078</v>
       </c>
       <c r="J25">
-        <v>0.9984378577203544</v>
+        <v>0.9984378577203543</v>
       </c>
       <c r="K25">
-        <v>1.010016778073901</v>
+        <v>1.0100167780739</v>
       </c>
       <c r="L25">
-        <v>0.9962817858887362</v>
+        <v>0.9962817858887359</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
@@ -421,28 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9831814612098587</v>
+        <v>0.985513070044325</v>
       </c>
       <c r="D2">
-        <v>1.004791010663094</v>
+        <v>1.006540314369752</v>
       </c>
       <c r="E2">
-        <v>0.9917896338526936</v>
+        <v>0.9937963231990954</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038948053068496</v>
+        <v>1.039835614158854</v>
       </c>
       <c r="J2">
-        <v>1.005877118318681</v>
+        <v>1.008135888427206</v>
       </c>
       <c r="K2">
-        <v>1.016184000204961</v>
+        <v>1.017909278063362</v>
       </c>
       <c r="L2">
-        <v>1.00336454974203</v>
+        <v>1.005342767080478</v>
+      </c>
+      <c r="N2">
+        <v>1.009567557023575</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,28 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9902712653802597</v>
+        <v>0.9925864102057433</v>
       </c>
       <c r="D3">
-        <v>1.009939696883114</v>
+        <v>1.011679439842817</v>
       </c>
       <c r="E3">
-        <v>0.9976144650389004</v>
+        <v>0.9996098681340094</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041058287014593</v>
+        <v>1.041942042188635</v>
       </c>
       <c r="J3">
-        <v>1.011030705458546</v>
+        <v>1.013281237906937</v>
       </c>
       <c r="K3">
-        <v>1.020446957726046</v>
+        <v>1.022165029686464</v>
       </c>
       <c r="L3">
-        <v>1.008277960504855</v>
+        <v>1.010247743205178</v>
+      </c>
+      <c r="N3">
+        <v>1.014720213489747</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,28 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9947202413218181</v>
+        <v>0.9970257253482562</v>
       </c>
       <c r="D4">
-        <v>1.013171530733549</v>
+        <v>1.014905706781189</v>
       </c>
       <c r="E4">
-        <v>1.001276795346997</v>
+        <v>1.003265599568381</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042365529888547</v>
+        <v>1.043247131437983</v>
       </c>
       <c r="J4">
-        <v>1.014259974954504</v>
+        <v>1.01650582059536</v>
       </c>
       <c r="K4">
-        <v>1.023113544258436</v>
+        <v>1.024827501048608</v>
       </c>
       <c r="L4">
-        <v>1.011359834961724</v>
+        <v>1.013324770818806</v>
+      </c>
+      <c r="N4">
+        <v>1.017949375455452</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,28 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.996559193966074</v>
+        <v>0.9988608338613402</v>
       </c>
       <c r="D5">
-        <v>1.014507485151255</v>
+        <v>1.016239457119049</v>
       </c>
       <c r="E5">
-        <v>1.002792215153002</v>
+        <v>1.004778399640259</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04290171312518</v>
+        <v>1.043782477611692</v>
       </c>
       <c r="J5">
-        <v>1.015593569347818</v>
+        <v>1.017837585679676</v>
       </c>
       <c r="K5">
-        <v>1.02421362404195</v>
+        <v>1.025925971230327</v>
       </c>
       <c r="L5">
-        <v>1.012633299589955</v>
+        <v>1.014596331822388</v>
+      </c>
+      <c r="N5">
+        <v>1.019283031798944</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -549,28 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9968661702399303</v>
+        <v>0.9991671768835086</v>
       </c>
       <c r="D6">
-        <v>1.01473049820323</v>
+        <v>1.016462107762051</v>
       </c>
       <c r="E6">
-        <v>1.003045276893354</v>
+        <v>1.00503103019228</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04299097127092</v>
+        <v>1.043871599065257</v>
       </c>
       <c r="J6">
-        <v>1.015816113452601</v>
+        <v>1.018059830555762</v>
       </c>
       <c r="K6">
-        <v>1.024397132013278</v>
+        <v>1.026109215717639</v>
       </c>
       <c r="L6">
-        <v>1.012845852954807</v>
+        <v>1.014808573088206</v>
+      </c>
+      <c r="N6">
+        <v>1.019505592288246</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -581,28 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9947449346143632</v>
+        <v>0.997050366446659</v>
       </c>
       <c r="D7">
-        <v>1.013189469582355</v>
+        <v>1.014923615658469</v>
       </c>
       <c r="E7">
-        <v>1.001297137968652</v>
+        <v>1.003285906595614</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042372746273531</v>
+        <v>1.043254336376613</v>
       </c>
       <c r="J7">
-        <v>1.014277887192</v>
+        <v>1.016523707851442</v>
       </c>
       <c r="K7">
-        <v>1.023128324607427</v>
+        <v>1.024842259429994</v>
       </c>
       <c r="L7">
-        <v>1.011376936637002</v>
+        <v>1.013341846546381</v>
+      </c>
+      <c r="N7">
+        <v>1.01796728811349</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,28 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9856073147675471</v>
+        <v>0.9879331409442316</v>
       </c>
       <c r="D8">
-        <v>1.006552409316065</v>
+        <v>1.008298345901123</v>
       </c>
       <c r="E8">
-        <v>0.9937810943966192</v>
+        <v>0.9957838146503912</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039673621029555</v>
+        <v>1.040559828258647</v>
       </c>
       <c r="J8">
-        <v>1.007641418615782</v>
+        <v>1.009897263151494</v>
       </c>
       <c r="K8">
-        <v>1.017644349584551</v>
+        <v>1.01936707195727</v>
       </c>
       <c r="L8">
-        <v>1.005045968925902</v>
+        <v>1.007021201361437</v>
+      </c>
+      <c r="N8">
+        <v>1.011331433102004</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9683552815490918</v>
+        <v>0.9707257148587072</v>
       </c>
       <c r="D9">
-        <v>0.9940357098336675</v>
+        <v>0.9958078004128562</v>
       </c>
       <c r="E9">
-        <v>0.9796536284952827</v>
+        <v>0.9816870663453044</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034443869662007</v>
+        <v>1.035340877817233</v>
       </c>
       <c r="J9">
-        <v>0.9950772084936993</v>
+        <v>0.9973563303550143</v>
       </c>
       <c r="K9">
-        <v>1.007226300392849</v>
+        <v>1.008969261290138</v>
       </c>
       <c r="L9">
-        <v>0.9930856687083118</v>
+        <v>0.9950844142646582</v>
+      </c>
+      <c r="N9">
+        <v>0.9987726907424885</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,28 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9559404968372809</v>
+        <v>0.9583482908570636</v>
       </c>
       <c r="D10">
-        <v>0.9850485030304954</v>
+        <v>0.9868427055176908</v>
       </c>
       <c r="E10">
-        <v>0.9695380989013211</v>
+        <v>0.9715973795645577</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030595524219796</v>
+        <v>1.031502025209103</v>
       </c>
       <c r="J10">
-        <v>0.9860182319750378</v>
+        <v>0.9883177992552797</v>
       </c>
       <c r="K10">
-        <v>0.9996930626899652</v>
+        <v>1.001453653201976</v>
       </c>
       <c r="L10">
-        <v>0.9844800309392596</v>
+        <v>0.9864991133665495</v>
+      </c>
+      <c r="N10">
+        <v>0.9897213238918582</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,28 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9503113535797226</v>
+        <v>0.9527376456979414</v>
       </c>
       <c r="D11">
-        <v>0.9809808653704853</v>
+        <v>0.9827860537490127</v>
       </c>
       <c r="E11">
-        <v>0.9649655759822512</v>
+        <v>0.9670376728359429</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028831961370565</v>
+        <v>1.029743259500808</v>
       </c>
       <c r="J11">
-        <v>0.981907992494117</v>
+        <v>0.9842179114311311</v>
       </c>
       <c r="K11">
-        <v>0.9962705942759409</v>
+        <v>0.998040068816902</v>
       </c>
       <c r="L11">
-        <v>0.9805798802741845</v>
+        <v>0.9826091836137716</v>
+      </c>
+      <c r="N11">
+        <v>0.9856156137567356</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9481787275554058</v>
+        <v>0.9506122936918061</v>
       </c>
       <c r="D12">
-        <v>0.9794411800774341</v>
+        <v>0.981250693095251</v>
       </c>
       <c r="E12">
-        <v>0.9632355671141897</v>
+        <v>0.9653127061820856</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02816117333781</v>
+        <v>1.029074371653412</v>
       </c>
       <c r="J12">
-        <v>0.9803505476217138</v>
+        <v>0.982664571799384</v>
       </c>
       <c r="K12">
-        <v>0.9949731460601627</v>
+        <v>0.9967461368721588</v>
       </c>
       <c r="L12">
-        <v>0.9791027178704823</v>
+        <v>0.9811360630624864</v>
+      </c>
+      <c r="N12">
+        <v>0.9840600682045407</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,28 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9486381342603432</v>
+        <v>0.9510701208691378</v>
       </c>
       <c r="D13">
-        <v>0.9797727909249857</v>
+        <v>0.9815813646708891</v>
       </c>
       <c r="E13">
-        <v>0.9636081350135823</v>
+        <v>0.9656841790812206</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028305790663385</v>
+        <v>1.029218575753242</v>
       </c>
       <c r="J13">
-        <v>0.9806860591561565</v>
+        <v>0.982999190334539</v>
       </c>
       <c r="K13">
-        <v>0.995252674569174</v>
+        <v>0.9970249008201518</v>
       </c>
       <c r="L13">
-        <v>0.9794209038392772</v>
+        <v>0.981453370341052</v>
+      </c>
+      <c r="N13">
+        <v>0.9843951619363972</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9501359436859478</v>
+        <v>0.952562828503316</v>
       </c>
       <c r="D14">
-        <v>0.980854196188594</v>
+        <v>0.9826597368588693</v>
       </c>
       <c r="E14">
-        <v>0.9648232335475557</v>
+        <v>0.9668957412031589</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028776841536683</v>
+        <v>1.02968829422512</v>
       </c>
       <c r="J14">
-        <v>0.9817798960717007</v>
+        <v>0.9840901488145652</v>
       </c>
       <c r="K14">
-        <v>0.9961638940464593</v>
+        <v>0.9979336546452949</v>
       </c>
       <c r="L14">
-        <v>0.9804583731119192</v>
+        <v>0.9824880053347484</v>
+      </c>
+      <c r="N14">
+        <v>0.9854876697025993</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,28 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9510531494354478</v>
+        <v>0.9534769460785326</v>
       </c>
       <c r="D15">
-        <v>0.9815165969551148</v>
+        <v>0.9833203022394575</v>
       </c>
       <c r="E15">
-        <v>0.9655676270628525</v>
+        <v>0.9676379943897156</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02906495225763</v>
+        <v>1.029975600190475</v>
       </c>
       <c r="J15">
-        <v>0.982449693303818</v>
+        <v>0.9847582081875157</v>
       </c>
       <c r="K15">
-        <v>0.9967217892571525</v>
+        <v>0.9984900603015922</v>
       </c>
       <c r="L15">
-        <v>0.9810937436330822</v>
+        <v>0.9831216631635584</v>
+      </c>
+      <c r="N15">
+        <v>0.9861566777964871</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,31 +911,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9563084451856748</v>
+        <v>0.9587150648459674</v>
       </c>
       <c r="D16">
-        <v>0.9853145564637488</v>
+        <v>0.987108062179512</v>
       </c>
       <c r="E16">
-        <v>0.9698372885526714</v>
+        <v>0.9718957559408128</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030710425855321</v>
+        <v>1.031616624169724</v>
       </c>
       <c r="J16">
-        <v>0.9862868532260266</v>
+        <v>0.9885857679133792</v>
       </c>
       <c r="K16">
-        <v>0.9999166475282636</v>
+        <v>1.00167667708922</v>
       </c>
       <c r="L16">
-        <v>0.9847350141773804</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9867534507435941</v>
+      </c>
+      <c r="N16">
+        <v>0.9899896730961886</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -901,31 +946,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9595346769008194</v>
+        <v>0.961931178414523</v>
       </c>
       <c r="D17">
-        <v>0.9876482142811555</v>
+        <v>0.9894357206470046</v>
       </c>
       <c r="E17">
-        <v>0.9724622416315472</v>
+        <v>0.9745137041114135</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031715817787439</v>
+        <v>1.032619418636253</v>
       </c>
       <c r="J17">
-        <v>0.9886418803323818</v>
+        <v>0.9909351969843709</v>
       </c>
       <c r="K17">
-        <v>1.001876337506963</v>
+        <v>1.003631550613977</v>
       </c>
       <c r="L17">
-        <v>0.9869709729263697</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.988983861131747</v>
+      </c>
+      <c r="N17">
+        <v>0.9923424386259445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -933,31 +981,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9613922973239744</v>
+        <v>0.9637831168272573</v>
       </c>
       <c r="D18">
-        <v>0.9889925763665292</v>
+        <v>0.9907767171285278</v>
       </c>
       <c r="E18">
-        <v>0.9739749621736893</v>
+        <v>0.9760224928302524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032292949833068</v>
+        <v>1.033195100715165</v>
       </c>
       <c r="J18">
-        <v>0.9899976100642162</v>
+        <v>0.9922878033825591</v>
       </c>
       <c r="K18">
-        <v>1.00300405640293</v>
+        <v>1.004756578598132</v>
       </c>
       <c r="L18">
-        <v>0.9882585696963874</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9902683556365904</v>
+      </c>
+      <c r="N18">
+        <v>0.9936969658803642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -965,31 +1016,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.962021698192291</v>
+        <v>0.9644106160619302</v>
       </c>
       <c r="D19">
-        <v>0.9894481817973084</v>
+        <v>0.9912311967812008</v>
       </c>
       <c r="E19">
-        <v>0.9744877201996035</v>
+        <v>0.9765339353070108</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032488191856016</v>
+        <v>1.033389858963256</v>
       </c>
       <c r="J19">
-        <v>0.9904569112487847</v>
+        <v>0.992746062703964</v>
       </c>
       <c r="K19">
-        <v>1.003386037023606</v>
+        <v>1.005137660998288</v>
       </c>
       <c r="L19">
-        <v>0.9886948578717463</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.9907036078523347</v>
+      </c>
+      <c r="N19">
+        <v>0.9941558759825687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -997,31 +1051,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9591910591660735</v>
+        <v>0.9615886231733802</v>
       </c>
       <c r="D20">
-        <v>0.9873995906149309</v>
+        <v>0.9891877266116764</v>
       </c>
       <c r="E20">
-        <v>0.9721825272577057</v>
+        <v>0.9742347251189583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031608917912155</v>
+        <v>1.032512790611471</v>
       </c>
       <c r="J20">
-        <v>0.9883910787554121</v>
+        <v>0.9906849811139449</v>
       </c>
       <c r="K20">
-        <v>1.001667681641635</v>
+        <v>1.003423399068612</v>
       </c>
       <c r="L20">
-        <v>0.9867328087872864</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9887462782020634</v>
+      </c>
+      <c r="N20">
+        <v>0.9920918674202823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1029,31 +1086,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9496960591952071</v>
+        <v>0.9521244347482773</v>
       </c>
       <c r="D21">
-        <v>0.9805365640311065</v>
+        <v>0.9823429908434878</v>
       </c>
       <c r="E21">
-        <v>0.9644663119079617</v>
+        <v>0.9665398528353254</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028638572517762</v>
+        <v>1.029550414162697</v>
       </c>
       <c r="J21">
-        <v>0.9814586583230179</v>
+        <v>0.9837697511955019</v>
       </c>
       <c r="K21">
-        <v>0.9958963036353614</v>
+        <v>0.9976667840781631</v>
       </c>
       <c r="L21">
-        <v>0.98015367070478</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9821841304838428</v>
+      </c>
+      <c r="N21">
+        <v>0.985166817082167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1061,31 +1121,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9434826734280403</v>
+        <v>0.9459327883128931</v>
       </c>
       <c r="D22">
-        <v>0.9760535925648864</v>
+        <v>0.9778729518619881</v>
       </c>
       <c r="E22">
-        <v>0.9594305821129629</v>
+        <v>0.9615191963655665</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026679369092926</v>
+        <v>1.027596915468827</v>
       </c>
       <c r="J22">
-        <v>0.9769207335417641</v>
+        <v>0.979244162796668</v>
       </c>
       <c r="K22">
-        <v>0.9921148413231465</v>
+        <v>0.9938958740553238</v>
       </c>
       <c r="L22">
-        <v>0.9758509687104449</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9778935517770181</v>
+      </c>
+      <c r="N22">
+        <v>0.9806348018287148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1093,31 +1156,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9468009330091387</v>
+        <v>0.9492392780260266</v>
       </c>
       <c r="D23">
-        <v>0.9784468745549285</v>
+        <v>0.9802592299516734</v>
       </c>
       <c r="E23">
-        <v>0.9621185637662948</v>
+        <v>0.964199016084364</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027727078203134</v>
+        <v>1.0286415287061</v>
       </c>
       <c r="J23">
-        <v>0.979344297227782</v>
+        <v>0.9816610283018625</v>
       </c>
       <c r="K23">
-        <v>0.9941347126207249</v>
+        <v>0.9959100199307512</v>
       </c>
       <c r="L23">
-        <v>0.978148529876308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9801845368792487</v>
+      </c>
+      <c r="N23">
+        <v>0.9830550995601449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1125,31 +1191,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.959346399702368</v>
+        <v>0.9617434829395133</v>
       </c>
       <c r="D24">
-        <v>0.9875119847578924</v>
+        <v>0.9892998358406746</v>
       </c>
       <c r="E24">
-        <v>0.9723089747156274</v>
+        <v>0.9743608398164729</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031657250008987</v>
+        <v>1.03256099967073</v>
       </c>
       <c r="J24">
-        <v>0.988504460376381</v>
+        <v>0.9907980976433881</v>
       </c>
       <c r="K24">
-        <v>1.001762011482183</v>
+        <v>1.00351750066475</v>
       </c>
       <c r="L24">
-        <v>0.9868404760352305</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9888536824148146</v>
+      </c>
+      <c r="N24">
+        <v>0.9922051445881722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1157,28 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9729651042348511</v>
+        <v>0.9753228118686879</v>
       </c>
       <c r="D25">
-        <v>0.99737761611109</v>
+        <v>0.9991422095835065</v>
       </c>
       <c r="E25">
-        <v>0.9834205242834466</v>
+        <v>0.9854451789419918</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035856180405078</v>
+        <v>1.036750034062439</v>
       </c>
       <c r="J25">
-        <v>0.9984378577203543</v>
+        <v>1.000710189782291</v>
       </c>
       <c r="K25">
-        <v>1.0100167780739</v>
+        <v>1.011753856253871</v>
       </c>
       <c r="L25">
-        <v>0.9962817858887359</v>
+        <v>0.998273721556739</v>
+      </c>
+      <c r="N25">
+        <v>1.002131313034845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
@@ -421,31 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.985513070044325</v>
+        <v>0.9980902176840393</v>
       </c>
       <c r="D2">
-        <v>1.006540314369752</v>
+        <v>1.016930662447294</v>
       </c>
       <c r="E2">
-        <v>0.9937963231990954</v>
+        <v>1.004278377467061</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039835614158854</v>
+        <v>1.044330637086861</v>
       </c>
       <c r="J2">
-        <v>1.008135888427206</v>
+        <v>1.020328200444355</v>
       </c>
       <c r="K2">
-        <v>1.017909278063362</v>
+        <v>1.028159059608116</v>
       </c>
       <c r="L2">
-        <v>1.005342767080478</v>
+        <v>1.015678427766975</v>
       </c>
       <c r="N2">
-        <v>1.009567557023575</v>
+        <v>1.021777183522266</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9925864102057433</v>
+        <v>1.005371608242273</v>
       </c>
       <c r="D3">
-        <v>1.011679439842817</v>
+        <v>1.022540541308947</v>
       </c>
       <c r="E3">
-        <v>0.9996098681340094</v>
+        <v>1.010333532191239</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041942042188635</v>
+        <v>1.046902459733954</v>
       </c>
       <c r="J3">
-        <v>1.013281237906937</v>
+        <v>1.025716901272576</v>
       </c>
       <c r="K3">
-        <v>1.022165029686464</v>
+        <v>1.03289291162953</v>
       </c>
       <c r="L3">
-        <v>1.010247743205178</v>
+        <v>1.020835879105775</v>
       </c>
       <c r="N3">
-        <v>1.014720213489747</v>
+        <v>1.027173536923755</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,31 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9970257253482562</v>
+        <v>1.009939145934596</v>
       </c>
       <c r="D4">
-        <v>1.014905706781189</v>
+        <v>1.0260608219672</v>
       </c>
       <c r="E4">
-        <v>1.003265599568381</v>
+        <v>1.01413761163971</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043247131437983</v>
+        <v>1.048500363164774</v>
       </c>
       <c r="J4">
-        <v>1.01650582059536</v>
+        <v>1.029091979718286</v>
       </c>
       <c r="K4">
-        <v>1.024827501048608</v>
+        <v>1.035854570109029</v>
       </c>
       <c r="L4">
-        <v>1.013324770818806</v>
+        <v>1.024068350799487</v>
       </c>
       <c r="N4">
-        <v>1.017949375455452</v>
+        <v>1.030553408367986</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9988608338613402</v>
+        <v>1.01182676238852</v>
       </c>
       <c r="D5">
-        <v>1.016239457119049</v>
+        <v>1.027515834176723</v>
       </c>
       <c r="E5">
-        <v>1.004778399640259</v>
+        <v>1.01571100642647</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043782477611692</v>
+        <v>1.049156966694333</v>
       </c>
       <c r="J5">
-        <v>1.017837585679676</v>
+        <v>1.030485478103559</v>
       </c>
       <c r="K5">
-        <v>1.025925971230327</v>
+        <v>1.037076565125782</v>
       </c>
       <c r="L5">
-        <v>1.014596331822388</v>
+        <v>1.02540349960773</v>
       </c>
       <c r="N5">
-        <v>1.019283031798944</v>
+        <v>1.031948885680802</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9991671768835086</v>
+        <v>1.012141843472645</v>
       </c>
       <c r="D6">
-        <v>1.016462107762051</v>
+        <v>1.027758713236486</v>
       </c>
       <c r="E6">
-        <v>1.00503103019228</v>
+        <v>1.015973711115271</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043871599065257</v>
+        <v>1.049266343952515</v>
       </c>
       <c r="J6">
-        <v>1.018059830555762</v>
+        <v>1.030718001872548</v>
       </c>
       <c r="K6">
-        <v>1.026109215717639</v>
+        <v>1.037280422823615</v>
       </c>
       <c r="L6">
-        <v>1.014808573088206</v>
+        <v>1.025626317992977</v>
       </c>
       <c r="N6">
-        <v>1.019505592288246</v>
+        <v>1.032181739660214</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.997050366446659</v>
+        <v>1.009964493967585</v>
       </c>
       <c r="D7">
-        <v>1.014923615658469</v>
+        <v>1.026080360108369</v>
       </c>
       <c r="E7">
-        <v>1.003285906595614</v>
+        <v>1.014158735117774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043254336376613</v>
+        <v>1.048509195396423</v>
       </c>
       <c r="J7">
-        <v>1.016523707851442</v>
+        <v>1.029110697723899</v>
       </c>
       <c r="K7">
-        <v>1.024842259429994</v>
+        <v>1.035870987661297</v>
       </c>
       <c r="L7">
-        <v>1.013341846546381</v>
+        <v>1.024086282939728</v>
       </c>
       <c r="N7">
-        <v>1.01796728811349</v>
+        <v>1.030572152955314</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9879331409442316</v>
+        <v>1.000582011802173</v>
       </c>
       <c r="D8">
-        <v>1.008298345901123</v>
+        <v>1.018850104721345</v>
       </c>
       <c r="E8">
-        <v>0.9957838146503912</v>
+        <v>1.006349266677072</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040559828258647</v>
+        <v>1.045213953619734</v>
       </c>
       <c r="J8">
-        <v>1.009897263151494</v>
+        <v>1.022173344595513</v>
       </c>
       <c r="K8">
-        <v>1.01936707195727</v>
+        <v>1.029780652460828</v>
       </c>
       <c r="L8">
-        <v>1.007021201361437</v>
+        <v>1.017443914526282</v>
       </c>
       <c r="N8">
-        <v>1.011331433102004</v>
+        <v>1.02362494798976</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9707257148587072</v>
+        <v>0.9828511358124868</v>
       </c>
       <c r="D9">
-        <v>0.9958078004128562</v>
+        <v>1.005202440429485</v>
       </c>
       <c r="E9">
-        <v>0.9816870663453044</v>
+        <v>0.9916424137935713</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035340877817233</v>
+        <v>1.03886500776127</v>
       </c>
       <c r="J9">
-        <v>0.9973563303550143</v>
+        <v>1.009024345232136</v>
       </c>
       <c r="K9">
-        <v>1.008969261290138</v>
+        <v>1.018211671830839</v>
       </c>
       <c r="L9">
-        <v>0.9950844142646582</v>
+        <v>1.004872558170574</v>
       </c>
       <c r="N9">
-        <v>0.9987726907424885</v>
+        <v>1.010457275539076</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9583482908570636</v>
+        <v>0.9700754395783648</v>
       </c>
       <c r="D10">
-        <v>0.9868427055176908</v>
+        <v>0.9953886855018107</v>
       </c>
       <c r="E10">
-        <v>0.9715973795645577</v>
+        <v>0.9810880630524972</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031502025209103</v>
+        <v>1.034212561520935</v>
       </c>
       <c r="J10">
-        <v>0.9883177992552797</v>
+        <v>0.9995287800085673</v>
       </c>
       <c r="K10">
-        <v>1.001453653201976</v>
+        <v>1.009841700805177</v>
       </c>
       <c r="L10">
-        <v>0.9864991133665495</v>
+        <v>0.9958073852652919</v>
       </c>
       <c r="N10">
-        <v>0.9897213238918582</v>
+        <v>1.000948225523733</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9527376456979414</v>
+        <v>0.9642773677828901</v>
       </c>
       <c r="D11">
-        <v>0.9827860537490127</v>
+        <v>0.9909418659061491</v>
       </c>
       <c r="E11">
-        <v>0.9670376728359429</v>
+        <v>0.9763101241192228</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029743259500808</v>
+        <v>1.03208391835535</v>
       </c>
       <c r="J11">
-        <v>0.9842179114311311</v>
+        <v>0.9952156458904381</v>
       </c>
       <c r="K11">
-        <v>0.998040068816902</v>
+        <v>1.006036651240786</v>
       </c>
       <c r="L11">
-        <v>0.9826091836137716</v>
+        <v>0.9916930656073997</v>
       </c>
       <c r="N11">
-        <v>0.9856156137567356</v>
+        <v>0.9966289662604326</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9506122936918061</v>
+        <v>0.9620798039010841</v>
       </c>
       <c r="D12">
-        <v>0.981250693095251</v>
+        <v>0.9892577243903758</v>
       </c>
       <c r="E12">
-        <v>0.9653127061820856</v>
+        <v>0.9745011979031298</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029074371653412</v>
+        <v>1.03127466753418</v>
       </c>
       <c r="J12">
-        <v>0.982664571799384</v>
+        <v>0.9935804712192721</v>
       </c>
       <c r="K12">
-        <v>0.9967461368721588</v>
+        <v>1.004593664409671</v>
       </c>
       <c r="L12">
-        <v>0.9811360630624864</v>
+        <v>0.9901337807471605</v>
       </c>
       <c r="N12">
-        <v>0.9840600682045407</v>
+        <v>0.9949914694536766</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9510701208691378</v>
+        <v>0.962553244353041</v>
       </c>
       <c r="D13">
-        <v>0.9815813646708891</v>
+        <v>0.9896204923785829</v>
       </c>
       <c r="E13">
-        <v>0.9656841790812206</v>
+        <v>0.9748908176798715</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029218575753242</v>
+        <v>1.031449120436052</v>
       </c>
       <c r="J13">
-        <v>0.982999190334539</v>
+        <v>0.9939327682292902</v>
       </c>
       <c r="K13">
-        <v>0.9970249008201518</v>
+        <v>1.004904573567641</v>
       </c>
       <c r="L13">
-        <v>0.981453370341052</v>
+        <v>0.9904697037572795</v>
       </c>
       <c r="N13">
-        <v>0.9843951619363972</v>
+        <v>0.995344266765858</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.952562828503316</v>
+        <v>0.9640966366540641</v>
       </c>
       <c r="D14">
-        <v>0.9826597368588693</v>
+        <v>0.9908033322263694</v>
       </c>
       <c r="E14">
-        <v>0.9668957412031589</v>
+        <v>0.9761613136667892</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02968829422512</v>
+        <v>1.032017413402447</v>
       </c>
       <c r="J14">
-        <v>0.9840901488145652</v>
+        <v>0.9950811743825182</v>
       </c>
       <c r="K14">
-        <v>0.9979336546452949</v>
+        <v>1.005917993183162</v>
       </c>
       <c r="L14">
-        <v>0.9824880053347484</v>
+        <v>0.9915648244603443</v>
       </c>
       <c r="N14">
-        <v>0.9854876697025993</v>
+        <v>0.9964943037875474</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9534769460785326</v>
+        <v>0.965041627707491</v>
       </c>
       <c r="D15">
-        <v>0.9833203022394575</v>
+        <v>0.9915277381605255</v>
       </c>
       <c r="E15">
-        <v>0.9676379943897156</v>
+        <v>0.9769394827134159</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029975600190475</v>
+        <v>1.032365049490218</v>
       </c>
       <c r="J15">
-        <v>0.9847582081875157</v>
+        <v>0.9957842706831559</v>
       </c>
       <c r="K15">
-        <v>0.9984900603015922</v>
+        <v>1.006538390063739</v>
       </c>
       <c r="L15">
-        <v>0.9831216631635584</v>
+        <v>0.9922353658399189</v>
       </c>
       <c r="N15">
-        <v>0.9861566777964871</v>
+        <v>0.9971983985655782</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9587150648459674</v>
+        <v>0.9704543090805856</v>
       </c>
       <c r="D16">
-        <v>0.987108062179512</v>
+        <v>0.99567942176461</v>
       </c>
       <c r="E16">
-        <v>0.9718957559408128</v>
+        <v>0.9814005362810558</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031616624169724</v>
+        <v>1.034351310305982</v>
       </c>
       <c r="J16">
-        <v>0.9885857679133792</v>
+        <v>0.9998105516825648</v>
       </c>
       <c r="K16">
-        <v>1.00167667708922</v>
+        <v>1.010090217670523</v>
       </c>
       <c r="L16">
-        <v>0.9867534507435941</v>
+        <v>0.9960762386368226</v>
       </c>
       <c r="N16">
-        <v>0.9899896730961886</v>
+        <v>1.001230397345827</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.961931178414523</v>
+        <v>0.9737756890904605</v>
       </c>
       <c r="D17">
-        <v>0.9894357206470046</v>
+        <v>0.9982289914736993</v>
       </c>
       <c r="E17">
-        <v>0.9745137041114135</v>
+        <v>0.9841412225112554</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032619418636253</v>
+        <v>1.035565735309959</v>
       </c>
       <c r="J17">
-        <v>0.9909351969843709</v>
+        <v>1.002280315107892</v>
       </c>
       <c r="K17">
-        <v>1.003631550613977</v>
+        <v>1.012268144304013</v>
       </c>
       <c r="L17">
-        <v>0.988983861131747</v>
+        <v>0.9984331471397992</v>
       </c>
       <c r="N17">
-        <v>0.9923424386259445</v>
+        <v>1.003703668118505</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9637831168272573</v>
+        <v>0.9756876093468405</v>
       </c>
       <c r="D18">
-        <v>0.9907767171285278</v>
+        <v>0.9996972691672796</v>
       </c>
       <c r="E18">
-        <v>0.9760224928302524</v>
+        <v>0.9857199849474605</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033195100715165</v>
+        <v>1.036263185985226</v>
       </c>
       <c r="J18">
-        <v>0.9922878033825591</v>
+        <v>1.003701653994068</v>
       </c>
       <c r="K18">
-        <v>1.004756578598132</v>
+        <v>1.013521230186497</v>
       </c>
       <c r="L18">
-        <v>0.9902683556365904</v>
+        <v>0.9997898483558733</v>
       </c>
       <c r="N18">
-        <v>0.9936969658803642</v>
+        <v>1.005127025468929</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9644106160619302</v>
+        <v>0.9763353297143572</v>
       </c>
       <c r="D19">
-        <v>0.9912311967812008</v>
+        <v>1.00019479515727</v>
       </c>
       <c r="E19">
-        <v>0.9765339353070108</v>
+        <v>0.9862550217292494</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033389858963256</v>
+        <v>1.036499189877195</v>
       </c>
       <c r="J19">
-        <v>0.992746062703964</v>
+        <v>1.004183111117364</v>
       </c>
       <c r="K19">
-        <v>1.005137660998288</v>
+        <v>1.013945641649552</v>
       </c>
       <c r="L19">
-        <v>0.9907036078523347</v>
+        <v>1.000249462532205</v>
       </c>
       <c r="N19">
-        <v>0.9941558759825687</v>
+        <v>1.005609166316563</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9615886231733802</v>
+        <v>0.9734219887413278</v>
       </c>
       <c r="D20">
-        <v>0.9891877266116764</v>
+        <v>0.9979574144483447</v>
       </c>
       <c r="E20">
-        <v>0.9742347251189583</v>
+        <v>0.9838492444452285</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032512790611471</v>
+        <v>1.035436576505484</v>
       </c>
       <c r="J20">
-        <v>0.9906849811139449</v>
+        <v>1.002017341291916</v>
       </c>
       <c r="K20">
-        <v>1.003423399068612</v>
+        <v>1.012036275600282</v>
       </c>
       <c r="L20">
-        <v>0.9887462782020634</v>
+        <v>0.9981821574804164</v>
       </c>
       <c r="N20">
-        <v>0.9920918674202823</v>
+        <v>1.003440320849546</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9521244347482773</v>
+        <v>0.9636433922015656</v>
       </c>
       <c r="D21">
-        <v>0.9823429908434878</v>
+        <v>0.9904559334570945</v>
       </c>
       <c r="E21">
-        <v>0.9665398528353254</v>
+        <v>0.9757881537821147</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029550414162697</v>
+        <v>1.031850590626747</v>
       </c>
       <c r="J21">
-        <v>0.9837697511955019</v>
+        <v>0.9947439351948528</v>
       </c>
       <c r="K21">
-        <v>0.9976667840781631</v>
+        <v>1.005620405494427</v>
       </c>
       <c r="L21">
-        <v>0.9821841304838428</v>
+        <v>0.9912432186683549</v>
       </c>
       <c r="N21">
-        <v>0.985166817082167</v>
+        <v>0.9961565856815537</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9459327883128931</v>
+        <v>0.9572388400838656</v>
       </c>
       <c r="D22">
-        <v>0.9778729518619881</v>
+        <v>0.9855503904719222</v>
       </c>
       <c r="E22">
-        <v>0.9615191963655665</v>
+        <v>0.9705202574625784</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027596915468827</v>
+        <v>1.029487593403736</v>
       </c>
       <c r="J22">
-        <v>0.979244162796668</v>
+        <v>0.9899777524477846</v>
       </c>
       <c r="K22">
-        <v>0.9938958740553238</v>
+        <v>1.001413636425514</v>
       </c>
       <c r="L22">
-        <v>0.9778935517770181</v>
+        <v>0.9866992422167152</v>
       </c>
       <c r="N22">
-        <v>0.9806348018287148</v>
+        <v>0.991383634408296</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9492392780260266</v>
+        <v>0.9606597709174771</v>
       </c>
       <c r="D23">
-        <v>0.9802592299516734</v>
+        <v>0.9881698468818494</v>
       </c>
       <c r="E23">
-        <v>0.964199016084364</v>
+        <v>0.9733328833635816</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0286415287061</v>
+        <v>1.030751064626439</v>
       </c>
       <c r="J23">
-        <v>0.9816610283018625</v>
+        <v>0.9925237431270238</v>
       </c>
       <c r="K23">
-        <v>0.9959100199307512</v>
+        <v>1.003661020667277</v>
       </c>
       <c r="L23">
-        <v>0.9801845368792487</v>
+        <v>0.9891262442705017</v>
       </c>
       <c r="N23">
-        <v>0.9830550995601449</v>
+        <v>0.9939332406863289</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9617434829395133</v>
+        <v>0.9735818888596135</v>
       </c>
       <c r="D24">
-        <v>0.9892998358406746</v>
+        <v>0.9980801864446794</v>
       </c>
       <c r="E24">
-        <v>0.9743608398164729</v>
+        <v>0.9839812378374</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03256099967073</v>
+        <v>1.035494971396418</v>
       </c>
       <c r="J24">
-        <v>0.9907980976433881</v>
+        <v>1.002136227065171</v>
       </c>
       <c r="K24">
-        <v>1.00351750066475</v>
+        <v>1.012141100249062</v>
       </c>
       <c r="L24">
-        <v>0.9888536824148146</v>
+        <v>0.9982956244683817</v>
       </c>
       <c r="N24">
-        <v>0.9922051445881722</v>
+        <v>1.003559375454235</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9753228118686879</v>
+        <v>0.9875912828227204</v>
       </c>
       <c r="D25">
-        <v>0.9991422095835065</v>
+        <v>1.008848298943325</v>
       </c>
       <c r="E25">
-        <v>0.9854451789419918</v>
+        <v>0.9955674851546137</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036750034062439</v>
+        <v>1.040575923513151</v>
       </c>
       <c r="J25">
-        <v>1.000710189782291</v>
+        <v>1.012543589676381</v>
       </c>
       <c r="K25">
-        <v>1.011753856253871</v>
+        <v>1.021310791946728</v>
       </c>
       <c r="L25">
-        <v>0.998273721556739</v>
+        <v>1.008235002133226</v>
       </c>
       <c r="N25">
-        <v>1.002131313034845</v>
+        <v>1.013981517714094</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
@@ -421,31 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9980902176840393</v>
+        <v>0.9875056942135165</v>
       </c>
       <c r="D2">
-        <v>1.016930662447294</v>
+        <v>1.008460507593308</v>
       </c>
       <c r="E2">
-        <v>1.004278377467061</v>
+        <v>0.9957591249661686</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044330637086861</v>
+        <v>1.040809942800168</v>
       </c>
       <c r="J2">
-        <v>1.020328200444355</v>
+        <v>1.010066639877959</v>
       </c>
       <c r="K2">
-        <v>1.028159059608116</v>
+        <v>1.019803219166501</v>
       </c>
       <c r="L2">
-        <v>1.015678427766975</v>
+        <v>1.007277859819329</v>
       </c>
       <c r="N2">
-        <v>1.021777183522266</v>
+        <v>1.007534416720289</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005371608242273</v>
+        <v>0.9914031130795397</v>
       </c>
       <c r="D3">
-        <v>1.022540541308947</v>
+        <v>1.011316000344433</v>
       </c>
       <c r="E3">
-        <v>1.010333532191239</v>
+        <v>0.9988036828858076</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046902459733954</v>
+        <v>1.041757418100851</v>
       </c>
       <c r="J3">
-        <v>1.025716901272576</v>
+        <v>1.012130913436942</v>
       </c>
       <c r="K3">
-        <v>1.03289291162953</v>
+        <v>1.021806109674097</v>
       </c>
       <c r="L3">
-        <v>1.020835879105775</v>
+        <v>1.009451893732873</v>
       </c>
       <c r="N3">
-        <v>1.027173536923755</v>
+        <v>1.008211669710696</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,31 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009939145934596</v>
+        <v>0.9938740662552423</v>
       </c>
       <c r="D4">
-        <v>1.0260608219672</v>
+        <v>1.013124403108349</v>
       </c>
       <c r="E4">
-        <v>1.01413761163971</v>
+        <v>1.000739929187536</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048500363164774</v>
+        <v>1.042341572284143</v>
       </c>
       <c r="J4">
-        <v>1.029091979718286</v>
+        <v>1.013435782831893</v>
       </c>
       <c r="K4">
-        <v>1.035854570109029</v>
+        <v>1.023066967302798</v>
       </c>
       <c r="L4">
-        <v>1.024068350799487</v>
+        <v>1.010829432111994</v>
       </c>
       <c r="N4">
-        <v>1.030553408367986</v>
+        <v>1.008639794244583</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01182676238852</v>
+        <v>0.9949010280453279</v>
       </c>
       <c r="D5">
-        <v>1.027515834176723</v>
+        <v>1.013875467866282</v>
       </c>
       <c r="E5">
-        <v>1.01571100642647</v>
+        <v>1.001546063640764</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049156966694333</v>
+        <v>1.042580322436755</v>
       </c>
       <c r="J5">
-        <v>1.030485478103559</v>
+        <v>1.013977140167635</v>
       </c>
       <c r="K5">
-        <v>1.037076565125782</v>
+        <v>1.023588788664461</v>
       </c>
       <c r="L5">
-        <v>1.02540349960773</v>
+        <v>1.01140173203466</v>
       </c>
       <c r="N5">
-        <v>1.031948885680802</v>
+        <v>1.008817416406733</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012141843472645</v>
+        <v>0.9950727762843564</v>
       </c>
       <c r="D6">
-        <v>1.027758713236486</v>
+        <v>1.01400104234387</v>
       </c>
       <c r="E6">
-        <v>1.015973711115271</v>
+        <v>1.001680962402806</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049266343952515</v>
+        <v>1.042620011936222</v>
       </c>
       <c r="J6">
-        <v>1.030718001872548</v>
+        <v>1.014067618644928</v>
       </c>
       <c r="K6">
-        <v>1.037280422823615</v>
+        <v>1.023675926198759</v>
       </c>
       <c r="L6">
-        <v>1.025626317992977</v>
+        <v>1.011497428884048</v>
       </c>
       <c r="N6">
-        <v>1.032181739660214</v>
+        <v>1.008847103094569</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009964493967585</v>
+        <v>0.99388783456547</v>
       </c>
       <c r="D7">
-        <v>1.026080360108369</v>
+        <v>1.013134474690489</v>
       </c>
       <c r="E7">
-        <v>1.014158735117774</v>
+        <v>1.000750731402039</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048509195396423</v>
+        <v>1.042344789180752</v>
       </c>
       <c r="J7">
-        <v>1.029110697723899</v>
+        <v>1.013443044575864</v>
       </c>
       <c r="K7">
-        <v>1.035870987661297</v>
+        <v>1.023073972074129</v>
       </c>
       <c r="L7">
-        <v>1.024086282939728</v>
+        <v>1.010837105771926</v>
       </c>
       <c r="N7">
-        <v>1.030572152955314</v>
+        <v>1.008642176844977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000582011802173</v>
+        <v>0.9888336189319784</v>
       </c>
       <c r="D8">
-        <v>1.018850104721345</v>
+        <v>1.009433805409454</v>
       </c>
       <c r="E8">
-        <v>1.006349266677072</v>
+        <v>0.9967951819000143</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045213953619734</v>
+        <v>1.041136195623593</v>
       </c>
       <c r="J8">
-        <v>1.022173344595513</v>
+        <v>1.010770768291998</v>
       </c>
       <c r="K8">
-        <v>1.029780652460828</v>
+        <v>1.020487488305324</v>
       </c>
       <c r="L8">
-        <v>1.017443914526282</v>
+        <v>1.00801874020147</v>
       </c>
       <c r="N8">
-        <v>1.02362494798976</v>
+        <v>1.007765424951944</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9828511358124868</v>
+        <v>0.9795199174795778</v>
       </c>
       <c r="D9">
-        <v>1.005202440429485</v>
+        <v>1.002601467381981</v>
       </c>
       <c r="E9">
-        <v>0.9916424137935713</v>
+        <v>0.9895556151551544</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03886500776127</v>
+        <v>1.038780346030261</v>
       </c>
       <c r="J9">
-        <v>1.009024345232136</v>
+        <v>1.005817202302344</v>
       </c>
       <c r="K9">
-        <v>1.018211671830839</v>
+        <v>1.015652478127966</v>
       </c>
       <c r="L9">
-        <v>1.004872558170574</v>
+        <v>1.002820449029513</v>
       </c>
       <c r="N9">
-        <v>1.010457275539076</v>
+        <v>1.006140375715522</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9700754395783648</v>
+        <v>0.9730110187029605</v>
       </c>
       <c r="D10">
-        <v>0.9953886855018107</v>
+        <v>0.997821975055685</v>
       </c>
       <c r="E10">
-        <v>0.9810880630524972</v>
+        <v>0.9845324584682589</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034212561520935</v>
+        <v>1.03705083601663</v>
       </c>
       <c r="J10">
-        <v>0.9995287800085673</v>
+        <v>1.002337925167785</v>
       </c>
       <c r="K10">
-        <v>1.009841700805177</v>
+        <v>1.012230666083797</v>
       </c>
       <c r="L10">
-        <v>0.9958073852652919</v>
+        <v>0.9991867151598688</v>
       </c>
       <c r="N10">
-        <v>1.000948225523733</v>
+        <v>1.004999126586262</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9642773677828901</v>
+        <v>0.9701153041107077</v>
       </c>
       <c r="D11">
-        <v>0.9909418659061491</v>
+        <v>0.995695461970006</v>
       </c>
       <c r="E11">
-        <v>0.9763101241192228</v>
+        <v>0.9823069607572346</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03208391835535</v>
+        <v>1.036262570940204</v>
       </c>
       <c r="J11">
-        <v>0.9952156458904381</v>
+        <v>1.000786424970836</v>
       </c>
       <c r="K11">
-        <v>1.006036651240786</v>
+        <v>1.010699014706508</v>
       </c>
       <c r="L11">
-        <v>0.9916930656073997</v>
+        <v>0.9975704373904609</v>
       </c>
       <c r="N11">
-        <v>0.9966289662604326</v>
+        <v>1.004490256577526</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9620798039010841</v>
+        <v>0.9690275248504193</v>
       </c>
       <c r="D12">
-        <v>0.9892577243903758</v>
+        <v>0.9948966880997219</v>
       </c>
       <c r="E12">
-        <v>0.9745011979031298</v>
+        <v>0.9814723935842639</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03127466753418</v>
+        <v>1.035963705021068</v>
       </c>
       <c r="J12">
-        <v>0.9935804712192721</v>
+        <v>1.000203103540164</v>
       </c>
       <c r="K12">
-        <v>1.004593664409671</v>
+        <v>1.010122316993362</v>
       </c>
       <c r="L12">
-        <v>0.9901337807471605</v>
+        <v>0.9969633748710918</v>
       </c>
       <c r="N12">
-        <v>0.9949914694536766</v>
+        <v>1.004298942454691</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.962553244353041</v>
+        <v>0.9692614179342567</v>
       </c>
       <c r="D13">
-        <v>0.9896204923785829</v>
+        <v>0.9950684357924764</v>
       </c>
       <c r="E13">
-        <v>0.9748908176798715</v>
+        <v>0.9816517750857711</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031449120436052</v>
+        <v>1.036028089991031</v>
       </c>
       <c r="J13">
-        <v>0.9939327682292902</v>
+        <v>1.000328550424966</v>
       </c>
       <c r="K13">
-        <v>1.004904573567641</v>
+        <v>1.010246376841197</v>
       </c>
       <c r="L13">
-        <v>0.9904697037572795</v>
+        <v>0.9970938997377073</v>
       </c>
       <c r="N13">
-        <v>0.995344266765858</v>
+        <v>1.004340085414511</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9640966366540641</v>
+        <v>0.9700256398438909</v>
       </c>
       <c r="D14">
-        <v>0.9908033322263694</v>
+        <v>0.9956296184766831</v>
       </c>
       <c r="E14">
-        <v>0.9761613136667892</v>
+        <v>0.9822381387447908</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032017413402447</v>
+        <v>1.03623799132144</v>
       </c>
       <c r="J14">
-        <v>0.9950811743825182</v>
+        <v>1.000738352383086</v>
       </c>
       <c r="K14">
-        <v>1.005917993183162</v>
+        <v>1.010651504873398</v>
       </c>
       <c r="L14">
-        <v>0.9915648244603443</v>
+        <v>0.9975203957990481</v>
       </c>
       <c r="N14">
-        <v>0.9964943037875474</v>
+        <v>1.004474489884124</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.965041627707491</v>
+        <v>0.9704948704314521</v>
       </c>
       <c r="D15">
-        <v>0.9915277381605255</v>
+        <v>0.9959741929985743</v>
       </c>
       <c r="E15">
-        <v>0.9769394827134159</v>
+        <v>0.9825983569758926</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032365049490218</v>
+        <v>1.036366509478448</v>
       </c>
       <c r="J15">
-        <v>0.9957842706831559</v>
+        <v>1.000989905570959</v>
       </c>
       <c r="K15">
-        <v>1.006538390063739</v>
+        <v>1.010900079274237</v>
       </c>
       <c r="L15">
-        <v>0.9922353658399189</v>
+        <v>0.9977822773372468</v>
       </c>
       <c r="N15">
-        <v>0.9971983985655782</v>
+        <v>1.004556993782672</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +911,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9704543090805856</v>
+        <v>0.9732015212593151</v>
       </c>
       <c r="D16">
-        <v>0.99567942176461</v>
+        <v>0.9979618765272914</v>
       </c>
       <c r="E16">
-        <v>0.9814005362810558</v>
+        <v>0.984679066149405</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034351310305982</v>
+        <v>1.037102308101268</v>
       </c>
       <c r="J16">
-        <v>0.9998105516825648</v>
+        <v>1.002439923249903</v>
       </c>
       <c r="K16">
-        <v>1.010090217670523</v>
+        <v>1.012331241416911</v>
       </c>
       <c r="L16">
-        <v>0.9960762386368226</v>
+        <v>0.9992930569752093</v>
       </c>
       <c r="N16">
-        <v>1.001230397345827</v>
+        <v>1.005032581446587</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +946,31 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9737756890904605</v>
+        <v>0.9748782432383039</v>
       </c>
       <c r="D17">
-        <v>0.9982289914736993</v>
+        <v>0.9991932178944261</v>
       </c>
       <c r="E17">
-        <v>0.9841412225112554</v>
+        <v>0.985970502319748</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035565735309959</v>
+        <v>1.037553207897421</v>
       </c>
       <c r="J17">
-        <v>1.002280315107892</v>
+        <v>1.003337259864936</v>
       </c>
       <c r="K17">
-        <v>1.012268144304013</v>
+        <v>1.013215407726147</v>
       </c>
       <c r="L17">
-        <v>0.9984331471397992</v>
+        <v>1.000229073855524</v>
       </c>
       <c r="N17">
-        <v>1.003703668118505</v>
+        <v>1.005326908291831</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +981,31 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9756876093468405</v>
+        <v>0.9758488267512546</v>
       </c>
       <c r="D18">
-        <v>0.9996972691672796</v>
+        <v>0.9999059661695521</v>
       </c>
       <c r="E18">
-        <v>0.9857199849474605</v>
+        <v>0.986718932726634</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036263185985226</v>
+        <v>1.037812421804623</v>
       </c>
       <c r="J18">
-        <v>1.003701653994068</v>
+        <v>1.003856343325949</v>
       </c>
       <c r="K18">
-        <v>1.013521230186497</v>
+        <v>1.013726322957301</v>
       </c>
       <c r="L18">
-        <v>0.9997898483558733</v>
+        <v>1.000770921478429</v>
       </c>
       <c r="N18">
-        <v>1.005127025468929</v>
+        <v>1.005497171924892</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1016,31 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9763353297143572</v>
+        <v>0.9761785286722514</v>
       </c>
       <c r="D19">
-        <v>1.00019479515727</v>
+        <v>1.000148076539094</v>
       </c>
       <c r="E19">
-        <v>0.9862550217292494</v>
+        <v>0.9869733167990101</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036499189877195</v>
+        <v>1.037900168980429</v>
       </c>
       <c r="J19">
-        <v>1.004183111117364</v>
+        <v>1.004032612978649</v>
       </c>
       <c r="K19">
-        <v>1.013945641649552</v>
+        <v>1.013899724770337</v>
       </c>
       <c r="L19">
-        <v>1.000249462532205</v>
+        <v>1.000954987370395</v>
       </c>
       <c r="N19">
-        <v>1.005609166316563</v>
+        <v>1.005554990478513</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1051,31 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9734219887413278</v>
+        <v>0.9746991183032049</v>
       </c>
       <c r="D20">
-        <v>0.9979574144483447</v>
+        <v>0.9990616749990567</v>
       </c>
       <c r="E20">
-        <v>0.9838492444452285</v>
+        <v>0.9858324467162163</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035436576505484</v>
+        <v>1.037505223537279</v>
       </c>
       <c r="J20">
-        <v>1.002017341291916</v>
+        <v>1.003241432660903</v>
       </c>
       <c r="K20">
-        <v>1.012036275600282</v>
+        <v>1.013121043811523</v>
       </c>
       <c r="L20">
-        <v>0.9981821574804164</v>
+        <v>1.000129075638705</v>
       </c>
       <c r="N20">
-        <v>1.003440320849546</v>
+        <v>1.005295476502454</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1086,31 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9636433922015656</v>
+        <v>0.9698009365451762</v>
       </c>
       <c r="D21">
-        <v>0.9904559334570945</v>
+        <v>0.9954646124203209</v>
       </c>
       <c r="E21">
-        <v>0.9757881537821147</v>
+        <v>0.9820656906814642</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031850590626747</v>
+        <v>1.036176349432228</v>
       </c>
       <c r="J21">
-        <v>0.9947439351948528</v>
+        <v>1.000617872119085</v>
       </c>
       <c r="K21">
-        <v>1.005620405494427</v>
+        <v>1.010532421579984</v>
       </c>
       <c r="L21">
-        <v>0.9912432186683549</v>
+        <v>0.9973949906626531</v>
       </c>
       <c r="N21">
-        <v>0.9961565856815537</v>
+        <v>1.004434975267956</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1121,31 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9572388400838656</v>
+        <v>0.9666504674258156</v>
       </c>
       <c r="D22">
-        <v>0.9855503904719222</v>
+        <v>0.9931513680980779</v>
       </c>
       <c r="E22">
-        <v>0.9705202574625784</v>
+        <v>0.9796513854757161</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029487593403736</v>
+        <v>1.03530563586395</v>
       </c>
       <c r="J22">
-        <v>0.9899777524477846</v>
+        <v>0.9989275427235624</v>
       </c>
       <c r="K22">
-        <v>1.001413636425514</v>
+        <v>1.008859729646937</v>
       </c>
       <c r="L22">
-        <v>0.9866992422167152</v>
+        <v>0.9956370251381347</v>
       </c>
       <c r="N22">
-        <v>0.991383634408296</v>
+        <v>1.00388060554802</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1156,31 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9606597709174771</v>
+        <v>0.9683274990670054</v>
       </c>
       <c r="D23">
-        <v>0.9881698468818494</v>
+        <v>0.9943826734912479</v>
       </c>
       <c r="E23">
-        <v>0.9733328833635816</v>
+        <v>0.9809357333614102</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030751064626439</v>
+        <v>1.035770607788139</v>
       </c>
       <c r="J23">
-        <v>0.9925237431270238</v>
+        <v>0.9998275802998347</v>
       </c>
       <c r="K23">
-        <v>1.003661020667277</v>
+        <v>1.009750825119665</v>
       </c>
       <c r="L23">
-        <v>0.9891262442705017</v>
+        <v>0.9965727405332744</v>
       </c>
       <c r="N23">
-        <v>0.9939332406863289</v>
+        <v>1.004175782738058</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1191,31 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9735818888596135</v>
+        <v>0.9747800800402405</v>
       </c>
       <c r="D24">
-        <v>0.9980801864446794</v>
+        <v>0.9991211304584499</v>
       </c>
       <c r="E24">
-        <v>0.9839812378374</v>
+        <v>0.9858948430412978</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035494971396418</v>
+        <v>1.037526917300041</v>
       </c>
       <c r="J24">
-        <v>1.002136227065171</v>
+        <v>1.003284746173301</v>
       </c>
       <c r="K24">
-        <v>1.012141100249062</v>
+        <v>1.013163697629494</v>
       </c>
       <c r="L24">
-        <v>0.9982956244683817</v>
+        <v>1.000174273226471</v>
       </c>
       <c r="N24">
-        <v>1.003559375454235</v>
+        <v>1.005309683532979</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9875912828227204</v>
+        <v>0.9819785848248025</v>
       </c>
       <c r="D25">
-        <v>1.008848298943325</v>
+        <v>1.004406201017104</v>
       </c>
       <c r="E25">
-        <v>0.9955674851546137</v>
+        <v>0.9914606981369357</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040575923513151</v>
+        <v>1.039416871864375</v>
       </c>
       <c r="J25">
-        <v>1.012543589676381</v>
+        <v>1.007128043718319</v>
       </c>
       <c r="K25">
-        <v>1.021310791946728</v>
+        <v>1.016936499309847</v>
       </c>
       <c r="L25">
-        <v>1.008235002133226</v>
+        <v>1.004193038133629</v>
       </c>
       <c r="N25">
-        <v>1.013981517714094</v>
+        <v>1.006570382136581</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9875056942135165</v>
+        <v>1.01429419160473</v>
       </c>
       <c r="D2">
-        <v>1.008460507593308</v>
+        <v>1.020829187621129</v>
       </c>
       <c r="E2">
-        <v>0.9957591249661686</v>
+        <v>1.016107839280098</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040809942800168</v>
+        <v>1.025876530047811</v>
       </c>
       <c r="J2">
-        <v>1.010066639877959</v>
+        <v>1.019526252390308</v>
       </c>
       <c r="K2">
-        <v>1.019803219166501</v>
+        <v>1.023668316833596</v>
       </c>
       <c r="L2">
-        <v>1.007277859819329</v>
+        <v>1.01896099625379</v>
       </c>
       <c r="N2">
-        <v>1.007534416720289</v>
+        <v>1.010660548212845</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9914031130795397</v>
+        <v>1.015102552581614</v>
       </c>
       <c r="D3">
-        <v>1.011316000344433</v>
+        <v>1.0214192022894</v>
       </c>
       <c r="E3">
-        <v>0.9988036828858076</v>
+        <v>1.016788647862587</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041757418100851</v>
+        <v>1.025978726153472</v>
       </c>
       <c r="J3">
-        <v>1.012130913436942</v>
+        <v>1.019969873490211</v>
       </c>
       <c r="K3">
-        <v>1.021806109674097</v>
+        <v>1.024065247508632</v>
       </c>
       <c r="L3">
-        <v>1.009451893732873</v>
+        <v>1.019447457670659</v>
       </c>
       <c r="N3">
-        <v>1.008211669710696</v>
+        <v>1.010806075101252</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9938740662552423</v>
+        <v>1.015625708554958</v>
       </c>
       <c r="D4">
-        <v>1.013124403108349</v>
+        <v>1.021800415157856</v>
       </c>
       <c r="E4">
-        <v>1.000739929187536</v>
+        <v>1.017229679440857</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042341572284143</v>
+        <v>1.026042775220996</v>
       </c>
       <c r="J4">
-        <v>1.013435782831893</v>
+        <v>1.020256383972522</v>
       </c>
       <c r="K4">
-        <v>1.023066967302798</v>
+        <v>1.024320827608154</v>
       </c>
       <c r="L4">
-        <v>1.010829432111994</v>
+        <v>1.01976205789824</v>
       </c>
       <c r="N4">
-        <v>1.008639794244583</v>
+        <v>1.010900060312771</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9949010280453279</v>
+        <v>1.015845663729786</v>
       </c>
       <c r="D5">
-        <v>1.013875467866282</v>
+        <v>1.021960539451098</v>
       </c>
       <c r="E5">
-        <v>1.001546063640764</v>
+        <v>1.017415207618748</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042580322436755</v>
+        <v>1.026069202749065</v>
       </c>
       <c r="J5">
-        <v>1.013977140167635</v>
+        <v>1.020376701814905</v>
       </c>
       <c r="K5">
-        <v>1.023588788664461</v>
+        <v>1.024427970050174</v>
       </c>
       <c r="L5">
-        <v>1.01140173203466</v>
+        <v>1.019894272990309</v>
       </c>
       <c r="N5">
-        <v>1.008817416406733</v>
+        <v>1.010939528035934</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9950727762843564</v>
+        <v>1.015882596318142</v>
       </c>
       <c r="D6">
-        <v>1.01400104234387</v>
+        <v>1.021987416895099</v>
       </c>
       <c r="E6">
-        <v>1.001680962402806</v>
+        <v>1.017446365509986</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042620011936222</v>
+        <v>1.026073610772076</v>
       </c>
       <c r="J6">
-        <v>1.014067618644928</v>
+        <v>1.020396895977633</v>
       </c>
       <c r="K6">
-        <v>1.023675926198759</v>
+        <v>1.024445941896196</v>
       </c>
       <c r="L6">
-        <v>1.011497428884048</v>
+        <v>1.019916469930888</v>
       </c>
       <c r="N6">
-        <v>1.008847103094569</v>
+        <v>1.010946152266434</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.99388783456547</v>
+        <v>1.015628647528756</v>
       </c>
       <c r="D7">
-        <v>1.013134474690489</v>
+        <v>1.021802555289802</v>
       </c>
       <c r="E7">
-        <v>1.000750731402039</v>
+        <v>1.017232158014215</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042344789180752</v>
+        <v>1.026043130307829</v>
       </c>
       <c r="J7">
-        <v>1.013443044575864</v>
+        <v>1.020257992182585</v>
       </c>
       <c r="K7">
-        <v>1.023073972074129</v>
+        <v>1.02432226044508</v>
       </c>
       <c r="L7">
-        <v>1.010837105771926</v>
+        <v>1.019763824732977</v>
       </c>
       <c r="N7">
-        <v>1.008642176844977</v>
+        <v>1.010900587854566</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9888336189319784</v>
+        <v>1.014567360830581</v>
       </c>
       <c r="D8">
-        <v>1.009433805409454</v>
+        <v>1.021028701805798</v>
       </c>
       <c r="E8">
-        <v>0.9967951819000143</v>
+        <v>1.016337816463709</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041136195623593</v>
+        <v>1.025911497458653</v>
       </c>
       <c r="J8">
-        <v>1.010770768291998</v>
+        <v>1.01967628761025</v>
       </c>
       <c r="K8">
-        <v>1.020487488305324</v>
+        <v>1.023802721442219</v>
       </c>
       <c r="L8">
-        <v>1.00801874020147</v>
+        <v>1.01912543307562</v>
       </c>
       <c r="N8">
-        <v>1.007765424951944</v>
+        <v>1.010709766782213</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9795199174795778</v>
+        <v>1.012698020648709</v>
       </c>
       <c r="D9">
-        <v>1.002601467381981</v>
+        <v>1.019660828785941</v>
       </c>
       <c r="E9">
-        <v>0.9895556151551544</v>
+        <v>1.014765807281991</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038780346030261</v>
+        <v>1.025663670317693</v>
       </c>
       <c r="J9">
-        <v>1.005817202302344</v>
+        <v>1.018647159979196</v>
       </c>
       <c r="K9">
-        <v>1.015652478127966</v>
+        <v>1.022877644798702</v>
       </c>
       <c r="L9">
-        <v>1.002820449029513</v>
+        <v>1.017999246084912</v>
       </c>
       <c r="N9">
-        <v>1.006140375715522</v>
+        <v>1.010372154430315</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9730110187029605</v>
+        <v>1.011452420350442</v>
       </c>
       <c r="D10">
-        <v>0.997821975055685</v>
+        <v>1.018746181951012</v>
       </c>
       <c r="E10">
-        <v>0.9845324584682589</v>
+        <v>1.01372055861418</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03705083601663</v>
+        <v>1.025487842272465</v>
       </c>
       <c r="J10">
-        <v>1.002337925167785</v>
+        <v>1.017958407364963</v>
       </c>
       <c r="K10">
-        <v>1.012230666083797</v>
+        <v>1.022254580652733</v>
       </c>
       <c r="L10">
-        <v>0.9991867151598688</v>
+        <v>1.017247694387752</v>
       </c>
       <c r="N10">
-        <v>1.004999126586262</v>
+        <v>1.010146191787924</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9701153041107077</v>
+        <v>1.010913231122607</v>
       </c>
       <c r="D11">
-        <v>0.995695461970006</v>
+        <v>1.018349507452007</v>
       </c>
       <c r="E11">
-        <v>0.9823069607572346</v>
+        <v>1.013268631914525</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036262570940204</v>
+        <v>1.025409203184091</v>
       </c>
       <c r="J11">
-        <v>1.000786424970836</v>
+        <v>1.017659554340371</v>
       </c>
       <c r="K11">
-        <v>1.010699014706508</v>
+        <v>1.021983301811832</v>
       </c>
       <c r="L11">
-        <v>0.9975704373904609</v>
+        <v>1.016922101919302</v>
       </c>
       <c r="N11">
-        <v>1.004490256577526</v>
+        <v>1.010048142645139</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9690275248504193</v>
+        <v>1.010712978512408</v>
       </c>
       <c r="D12">
-        <v>0.9948966880997219</v>
+        <v>1.018202072813729</v>
       </c>
       <c r="E12">
-        <v>0.9814723935842639</v>
+        <v>1.01310086919875</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035963705021068</v>
+        <v>1.025379617873677</v>
       </c>
       <c r="J12">
-        <v>1.000203103540164</v>
+        <v>1.017548455445025</v>
       </c>
       <c r="K12">
-        <v>1.010122316993362</v>
+        <v>1.021882314811298</v>
       </c>
       <c r="L12">
-        <v>0.9969633748710918</v>
+        <v>1.016801138939023</v>
       </c>
       <c r="N12">
-        <v>1.004298942454691</v>
+        <v>1.01001169236006</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9692614179342567</v>
+        <v>1.010755932161591</v>
       </c>
       <c r="D13">
-        <v>0.9950684357924764</v>
+        <v>1.018233702177762</v>
       </c>
       <c r="E13">
-        <v>0.9816517750857711</v>
+        <v>1.013136850180327</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036028089991031</v>
+        <v>1.025385980988091</v>
       </c>
       <c r="J13">
-        <v>1.000328550424966</v>
+        <v>1.017572290657422</v>
       </c>
       <c r="K13">
-        <v>1.010246376841197</v>
+        <v>1.021903986884523</v>
       </c>
       <c r="L13">
-        <v>0.9970938997377073</v>
+        <v>1.016827086946565</v>
       </c>
       <c r="N13">
-        <v>1.004340085414511</v>
+        <v>1.010019512441392</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9700256398438909</v>
+        <v>1.010896677633831</v>
       </c>
       <c r="D14">
-        <v>0.9956296184766831</v>
+        <v>1.018337322325217</v>
       </c>
       <c r="E14">
-        <v>0.9822381387447908</v>
+        <v>1.01325476248439</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03623799132144</v>
+        <v>1.025406765302347</v>
       </c>
       <c r="J14">
-        <v>1.000738352383086</v>
+        <v>1.017650372731293</v>
       </c>
       <c r="K14">
-        <v>1.010651504873398</v>
+        <v>1.021974958713648</v>
       </c>
       <c r="L14">
-        <v>0.9975203957990481</v>
+        <v>1.016912103551482</v>
       </c>
       <c r="N14">
-        <v>1.004474489884124</v>
+        <v>1.010045130272114</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9704948704314521</v>
+        <v>1.010983399095573</v>
       </c>
       <c r="D15">
-        <v>0.9959741929985743</v>
+        <v>1.018401153978898</v>
       </c>
       <c r="E15">
-        <v>0.9825983569758926</v>
+        <v>1.013327425849108</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036366509478448</v>
+        <v>1.025419521509727</v>
       </c>
       <c r="J15">
-        <v>1.000989905570959</v>
+        <v>1.017698469579974</v>
       </c>
       <c r="K15">
-        <v>1.010900079274237</v>
+        <v>1.022018657435329</v>
       </c>
       <c r="L15">
-        <v>0.9977822773372468</v>
+        <v>1.016964482024593</v>
       </c>
       <c r="N15">
-        <v>1.004556993782672</v>
+        <v>1.010060910239411</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9732015212593151</v>
+        <v>1.011488208158249</v>
       </c>
       <c r="D16">
-        <v>0.9979618765272914</v>
+        <v>1.018772494908339</v>
       </c>
       <c r="E16">
-        <v>0.984679066149405</v>
+        <v>1.013750565839126</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037102308101268</v>
+        <v>1.02549300861116</v>
       </c>
       <c r="J16">
-        <v>1.002439923249903</v>
+        <v>1.01797822833924</v>
       </c>
       <c r="K16">
-        <v>1.012331241416911</v>
+        <v>1.022272553322307</v>
       </c>
       <c r="L16">
-        <v>0.9992930569752093</v>
+        <v>1.017269299521391</v>
       </c>
       <c r="N16">
-        <v>1.005032581446587</v>
+        <v>1.010152694689005</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9748782432383039</v>
+        <v>1.011804906598835</v>
       </c>
       <c r="D17">
-        <v>0.9991932178944261</v>
+        <v>1.019005261006382</v>
       </c>
       <c r="E17">
-        <v>0.985970502319748</v>
+        <v>1.014016171860491</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037553207897421</v>
+        <v>1.025538435345091</v>
       </c>
       <c r="J17">
-        <v>1.003337259864936</v>
+        <v>1.0181535489656</v>
       </c>
       <c r="K17">
-        <v>1.013215407726147</v>
+        <v>1.022431418261652</v>
       </c>
       <c r="L17">
-        <v>1.000229073855524</v>
+        <v>1.017460460162707</v>
       </c>
       <c r="N17">
-        <v>1.005326908291831</v>
+        <v>1.010210213865862</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9758488267512546</v>
+        <v>1.011989647146872</v>
       </c>
       <c r="D18">
-        <v>0.9999059661695521</v>
+        <v>1.019140968960345</v>
       </c>
       <c r="E18">
-        <v>0.986718932726634</v>
+        <v>1.014171160155064</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037812421804623</v>
+        <v>1.025564690286827</v>
       </c>
       <c r="J18">
-        <v>1.003856343325949</v>
+        <v>1.01825575074422</v>
       </c>
       <c r="K18">
-        <v>1.013726322957301</v>
+        <v>1.02252393782118</v>
       </c>
       <c r="L18">
-        <v>1.000770921478429</v>
+        <v>1.017571944853989</v>
       </c>
       <c r="N18">
-        <v>1.005497171924892</v>
+        <v>1.01024374393882</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9761785286722514</v>
+        <v>1.012052641513334</v>
       </c>
       <c r="D19">
-        <v>1.000148076539094</v>
+        <v>1.019187231529152</v>
       </c>
       <c r="E19">
-        <v>0.9869733167990101</v>
+        <v>1.014224018091104</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037900168980429</v>
+        <v>1.02557360151567</v>
       </c>
       <c r="J19">
-        <v>1.004032612978649</v>
+        <v>1.018290588728908</v>
       </c>
       <c r="K19">
-        <v>1.013899724770337</v>
+        <v>1.022555460182337</v>
       </c>
       <c r="L19">
-        <v>1.000954987370395</v>
+        <v>1.01760995548181</v>
       </c>
       <c r="N19">
-        <v>1.005554990478513</v>
+        <v>1.010255173439659</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9746991183032049</v>
+        <v>1.011770926216896</v>
       </c>
       <c r="D20">
-        <v>0.9990616749990567</v>
+        <v>1.01898029365751</v>
       </c>
       <c r="E20">
-        <v>0.9858324467162163</v>
+        <v>1.013987668132235</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037505223537279</v>
+        <v>1.025533586479708</v>
       </c>
       <c r="J20">
-        <v>1.003241432660903</v>
+        <v>1.018134744894714</v>
       </c>
       <c r="K20">
-        <v>1.013121043811523</v>
+        <v>1.022414388406283</v>
       </c>
       <c r="L20">
-        <v>1.000129075638705</v>
+        <v>1.017439952087456</v>
       </c>
       <c r="N20">
-        <v>1.005295476502454</v>
+        <v>1.010204044656533</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9698009365451762</v>
+        <v>1.010855230861673</v>
       </c>
       <c r="D21">
-        <v>0.9954646124203209</v>
+        <v>1.018306811299658</v>
       </c>
       <c r="E21">
-        <v>0.9820656906814642</v>
+        <v>1.013220037391769</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036176349432228</v>
+        <v>1.025400655190597</v>
       </c>
       <c r="J21">
-        <v>1.000617872119085</v>
+        <v>1.017627382023722</v>
       </c>
       <c r="K21">
-        <v>1.010532421579984</v>
+        <v>1.021954065393395</v>
       </c>
       <c r="L21">
-        <v>0.9973949906626531</v>
+        <v>1.016887068915844</v>
       </c>
       <c r="N21">
-        <v>1.004434975267956</v>
+        <v>1.010037587296891</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9666504674258156</v>
+        <v>1.01027964968742</v>
       </c>
       <c r="D22">
-        <v>0.9931513680980779</v>
+        <v>1.017882834536591</v>
       </c>
       <c r="E22">
-        <v>0.9796513854757161</v>
+        <v>1.012737994232426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03530563586395</v>
+        <v>1.025314905413665</v>
       </c>
       <c r="J22">
-        <v>0.9989275427235624</v>
+        <v>1.017307853689626</v>
       </c>
       <c r="K22">
-        <v>1.008859729646937</v>
+        <v>1.021663358628423</v>
       </c>
       <c r="L22">
-        <v>0.9956370251381347</v>
+        <v>1.016539314410843</v>
       </c>
       <c r="N22">
-        <v>1.00388060554802</v>
+        <v>1.009932752894315</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9683274990670054</v>
+        <v>1.010584761121711</v>
       </c>
       <c r="D23">
-        <v>0.9943826734912479</v>
+        <v>1.018107642359834</v>
       </c>
       <c r="E23">
-        <v>0.9809357333614102</v>
+        <v>1.012993477237327</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035770607788139</v>
+        <v>1.025360568407746</v>
       </c>
       <c r="J23">
-        <v>0.9998275802998347</v>
+        <v>1.017477291410924</v>
       </c>
       <c r="K23">
-        <v>1.009750825119665</v>
+        <v>1.021817588910869</v>
       </c>
       <c r="L23">
-        <v>0.9965727405332744</v>
+        <v>1.016723677962095</v>
       </c>
       <c r="N23">
-        <v>1.004175782738058</v>
+        <v>1.009988344131177</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9747800800402405</v>
+        <v>1.011786280440464</v>
       </c>
       <c r="D24">
-        <v>0.9991211304584499</v>
+        <v>1.018991575515147</v>
       </c>
       <c r="E24">
-        <v>0.9858948430412978</v>
+        <v>1.014000547540121</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037526917300041</v>
+        <v>1.025535778220178</v>
       </c>
       <c r="J24">
-        <v>1.003284746173301</v>
+        <v>1.018143241829781</v>
       </c>
       <c r="K24">
-        <v>1.013163697629494</v>
+        <v>1.022422083908971</v>
       </c>
       <c r="L24">
-        <v>1.000174273226471</v>
+        <v>1.017449218853739</v>
       </c>
       <c r="N24">
-        <v>1.005309683532979</v>
+        <v>1.010206832318184</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9819785848248025</v>
+        <v>1.013181186791001</v>
       </c>
       <c r="D25">
-        <v>1.004406201017104</v>
+        <v>1.020014947080753</v>
       </c>
       <c r="E25">
-        <v>0.9914606981369357</v>
+        <v>1.015171731469196</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039416871864375</v>
+        <v>1.025729614177676</v>
       </c>
       <c r="J25">
-        <v>1.007128043718319</v>
+        <v>1.018913690299751</v>
       </c>
       <c r="K25">
-        <v>1.016936499309847</v>
+        <v>1.023117924887494</v>
       </c>
       <c r="L25">
-        <v>1.004193038133629</v>
+        <v>1.018290532726119</v>
       </c>
       <c r="N25">
-        <v>1.006570382136581</v>
+        <v>1.010459593787363</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01429419160473</v>
+        <v>0.9875056942135163</v>
       </c>
       <c r="D2">
-        <v>1.020829187621129</v>
+        <v>1.008460507593308</v>
       </c>
       <c r="E2">
-        <v>1.016107839280098</v>
+        <v>0.9957591249661685</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025876530047811</v>
+        <v>1.040809942800168</v>
       </c>
       <c r="J2">
-        <v>1.019526252390308</v>
+        <v>1.010066639877959</v>
       </c>
       <c r="K2">
-        <v>1.023668316833596</v>
+        <v>1.019803219166501</v>
       </c>
       <c r="L2">
-        <v>1.01896099625379</v>
+        <v>1.007277859819329</v>
       </c>
       <c r="N2">
-        <v>1.010660548212845</v>
+        <v>1.007534416720289</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015102552581614</v>
+        <v>0.9914031130795397</v>
       </c>
       <c r="D3">
-        <v>1.0214192022894</v>
+        <v>1.011316000344433</v>
       </c>
       <c r="E3">
-        <v>1.016788647862587</v>
+        <v>0.9988036828858072</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.025978726153472</v>
+        <v>1.041757418100851</v>
       </c>
       <c r="J3">
-        <v>1.019969873490211</v>
+        <v>1.012130913436942</v>
       </c>
       <c r="K3">
-        <v>1.024065247508632</v>
+        <v>1.021806109674096</v>
       </c>
       <c r="L3">
-        <v>1.019447457670659</v>
+        <v>1.009451893732873</v>
       </c>
       <c r="N3">
-        <v>1.010806075101252</v>
+        <v>1.008211669710696</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015625708554958</v>
+        <v>0.9938740662552427</v>
       </c>
       <c r="D4">
-        <v>1.021800415157856</v>
+        <v>1.013124403108349</v>
       </c>
       <c r="E4">
-        <v>1.017229679440857</v>
+        <v>1.000739929187537</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026042775220996</v>
+        <v>1.042341572284143</v>
       </c>
       <c r="J4">
-        <v>1.020256383972522</v>
+        <v>1.013435782831893</v>
       </c>
       <c r="K4">
-        <v>1.024320827608154</v>
+        <v>1.023066967302798</v>
       </c>
       <c r="L4">
-        <v>1.01976205789824</v>
+        <v>1.010829432111995</v>
       </c>
       <c r="N4">
-        <v>1.010900060312771</v>
+        <v>1.008639794244583</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015845663729786</v>
+        <v>0.9949010280453282</v>
       </c>
       <c r="D5">
-        <v>1.021960539451098</v>
+        <v>1.013875467866283</v>
       </c>
       <c r="E5">
-        <v>1.017415207618748</v>
+        <v>1.001546063640765</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026069202749065</v>
+        <v>1.042580322436755</v>
       </c>
       <c r="J5">
-        <v>1.020376701814905</v>
+        <v>1.013977140167635</v>
       </c>
       <c r="K5">
-        <v>1.024427970050174</v>
+        <v>1.023588788664461</v>
       </c>
       <c r="L5">
-        <v>1.019894272990309</v>
+        <v>1.01140173203466</v>
       </c>
       <c r="N5">
-        <v>1.010939528035934</v>
+        <v>1.008817416406733</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015882596318142</v>
+        <v>0.995072776284356</v>
       </c>
       <c r="D6">
-        <v>1.021987416895099</v>
+        <v>1.014001042343869</v>
       </c>
       <c r="E6">
-        <v>1.017446365509986</v>
+        <v>1.001680962402805</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026073610772076</v>
+        <v>1.042620011936221</v>
       </c>
       <c r="J6">
-        <v>1.020396895977633</v>
+        <v>1.014067618644928</v>
       </c>
       <c r="K6">
-        <v>1.024445941896196</v>
+        <v>1.023675926198758</v>
       </c>
       <c r="L6">
-        <v>1.019916469930888</v>
+        <v>1.011497428884047</v>
       </c>
       <c r="N6">
-        <v>1.010946152266434</v>
+        <v>1.008847103094569</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015628647528756</v>
+        <v>0.9938878345654695</v>
       </c>
       <c r="D7">
-        <v>1.021802555289802</v>
+        <v>1.013134474690489</v>
       </c>
       <c r="E7">
-        <v>1.017232158014215</v>
+        <v>1.000750731402039</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026043130307829</v>
+        <v>1.042344789180752</v>
       </c>
       <c r="J7">
-        <v>1.020257992182585</v>
+        <v>1.013443044575864</v>
       </c>
       <c r="K7">
-        <v>1.02432226044508</v>
+        <v>1.023073972074128</v>
       </c>
       <c r="L7">
-        <v>1.019763824732977</v>
+        <v>1.010837105771925</v>
       </c>
       <c r="N7">
-        <v>1.010900587854566</v>
+        <v>1.008642176844977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014567360830581</v>
+        <v>0.9888336189319789</v>
       </c>
       <c r="D8">
-        <v>1.021028701805798</v>
+        <v>1.009433805409454</v>
       </c>
       <c r="E8">
-        <v>1.016337816463709</v>
+        <v>0.9967951819000145</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025911497458653</v>
+        <v>1.041136195623593</v>
       </c>
       <c r="J8">
-        <v>1.01967628761025</v>
+        <v>1.010770768291998</v>
       </c>
       <c r="K8">
-        <v>1.023802721442219</v>
+        <v>1.020487488305324</v>
       </c>
       <c r="L8">
-        <v>1.01912543307562</v>
+        <v>1.00801874020147</v>
       </c>
       <c r="N8">
-        <v>1.010709766782213</v>
+        <v>1.007765424951944</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.012698020648709</v>
+        <v>0.9795199174795779</v>
       </c>
       <c r="D9">
-        <v>1.019660828785941</v>
+        <v>1.002601467381981</v>
       </c>
       <c r="E9">
-        <v>1.014765807281991</v>
+        <v>0.9895556151551543</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025663670317693</v>
+        <v>1.038780346030261</v>
       </c>
       <c r="J9">
-        <v>1.018647159979196</v>
+        <v>1.005817202302344</v>
       </c>
       <c r="K9">
-        <v>1.022877644798702</v>
+        <v>1.015652478127966</v>
       </c>
       <c r="L9">
-        <v>1.017999246084912</v>
+        <v>1.002820449029513</v>
       </c>
       <c r="N9">
-        <v>1.010372154430315</v>
+        <v>1.006140375715522</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.011452420350442</v>
+        <v>0.9730110187029604</v>
       </c>
       <c r="D10">
-        <v>1.018746181951012</v>
+        <v>0.9978219750556852</v>
       </c>
       <c r="E10">
-        <v>1.01372055861418</v>
+        <v>0.9845324584682589</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025487842272465</v>
+        <v>1.03705083601663</v>
       </c>
       <c r="J10">
-        <v>1.017958407364963</v>
+        <v>1.002337925167785</v>
       </c>
       <c r="K10">
-        <v>1.022254580652733</v>
+        <v>1.012230666083797</v>
       </c>
       <c r="L10">
-        <v>1.017247694387752</v>
+        <v>0.9991867151598689</v>
       </c>
       <c r="N10">
-        <v>1.010146191787924</v>
+        <v>1.004999126586262</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010913231122607</v>
+        <v>0.9701153041107072</v>
       </c>
       <c r="D11">
-        <v>1.018349507452007</v>
+        <v>0.9956954619700056</v>
       </c>
       <c r="E11">
-        <v>1.013268631914525</v>
+        <v>0.9823069607572338</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025409203184091</v>
+        <v>1.036262570940204</v>
       </c>
       <c r="J11">
-        <v>1.017659554340371</v>
+        <v>1.000786424970836</v>
       </c>
       <c r="K11">
-        <v>1.021983301811832</v>
+        <v>1.010699014706508</v>
       </c>
       <c r="L11">
-        <v>1.016922101919302</v>
+        <v>0.9975704373904603</v>
       </c>
       <c r="N11">
-        <v>1.010048142645139</v>
+        <v>1.004490256577526</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010712978512408</v>
+        <v>0.9690275248504191</v>
       </c>
       <c r="D12">
-        <v>1.018202072813729</v>
+        <v>0.9948966880997216</v>
       </c>
       <c r="E12">
-        <v>1.01310086919875</v>
+        <v>0.9814723935842639</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025379617873677</v>
+        <v>1.035963705021067</v>
       </c>
       <c r="J12">
-        <v>1.017548455445025</v>
+        <v>1.000203103540164</v>
       </c>
       <c r="K12">
-        <v>1.021882314811298</v>
+        <v>1.010122316993362</v>
       </c>
       <c r="L12">
-        <v>1.016801138939023</v>
+        <v>0.9969633748710917</v>
       </c>
       <c r="N12">
-        <v>1.01001169236006</v>
+        <v>1.004298942454691</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010755932161591</v>
+        <v>0.9692614179342565</v>
       </c>
       <c r="D13">
-        <v>1.018233702177762</v>
+        <v>0.9950684357924759</v>
       </c>
       <c r="E13">
-        <v>1.013136850180327</v>
+        <v>0.9816517750857701</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025385980988091</v>
+        <v>1.03602808999103</v>
       </c>
       <c r="J13">
-        <v>1.017572290657422</v>
+        <v>1.000328550424965</v>
       </c>
       <c r="K13">
-        <v>1.021903986884523</v>
+        <v>1.010246376841197</v>
       </c>
       <c r="L13">
-        <v>1.016827086946565</v>
+        <v>0.9970938997377066</v>
       </c>
       <c r="N13">
-        <v>1.010019512441392</v>
+        <v>1.004340085414511</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010896677633831</v>
+        <v>0.9700256398438905</v>
       </c>
       <c r="D14">
-        <v>1.018337322325217</v>
+        <v>0.9956296184766829</v>
       </c>
       <c r="E14">
-        <v>1.01325476248439</v>
+        <v>0.9822381387447907</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025406765302347</v>
+        <v>1.03623799132144</v>
       </c>
       <c r="J14">
-        <v>1.017650372731293</v>
+        <v>1.000738352383086</v>
       </c>
       <c r="K14">
-        <v>1.021974958713648</v>
+        <v>1.010651504873398</v>
       </c>
       <c r="L14">
-        <v>1.016912103551482</v>
+        <v>0.9975203957990479</v>
       </c>
       <c r="N14">
-        <v>1.010045130272114</v>
+        <v>1.004474489884124</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010983399095573</v>
+        <v>0.9704948704314518</v>
       </c>
       <c r="D15">
-        <v>1.018401153978898</v>
+        <v>0.9959741929985738</v>
       </c>
       <c r="E15">
-        <v>1.013327425849108</v>
+        <v>0.9825983569758919</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025419521509727</v>
+        <v>1.036366509478448</v>
       </c>
       <c r="J15">
-        <v>1.017698469579974</v>
+        <v>1.000989905570959</v>
       </c>
       <c r="K15">
-        <v>1.022018657435329</v>
+        <v>1.010900079274237</v>
       </c>
       <c r="L15">
-        <v>1.016964482024593</v>
+        <v>0.9977822773372462</v>
       </c>
       <c r="N15">
-        <v>1.010060910239411</v>
+        <v>1.004556993782672</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.011488208158249</v>
+        <v>0.9732015212593145</v>
       </c>
       <c r="D16">
-        <v>1.018772494908339</v>
+        <v>0.9979618765272907</v>
       </c>
       <c r="E16">
-        <v>1.013750565839126</v>
+        <v>0.9846790661494044</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02549300861116</v>
+        <v>1.037102308101268</v>
       </c>
       <c r="J16">
-        <v>1.01797822833924</v>
+        <v>1.002439923249903</v>
       </c>
       <c r="K16">
-        <v>1.022272553322307</v>
+        <v>1.01233124141691</v>
       </c>
       <c r="L16">
-        <v>1.017269299521391</v>
+        <v>0.9992930569752089</v>
       </c>
       <c r="N16">
-        <v>1.010152694689005</v>
+        <v>1.005032581446587</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011804906598835</v>
+        <v>0.9748782432383042</v>
       </c>
       <c r="D17">
-        <v>1.019005261006382</v>
+        <v>0.9991932178944263</v>
       </c>
       <c r="E17">
-        <v>1.014016171860491</v>
+        <v>0.9859705023197484</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025538435345091</v>
+        <v>1.037553207897421</v>
       </c>
       <c r="J17">
-        <v>1.0181535489656</v>
+        <v>1.003337259864936</v>
       </c>
       <c r="K17">
-        <v>1.022431418261652</v>
+        <v>1.013215407726147</v>
       </c>
       <c r="L17">
-        <v>1.017460460162707</v>
+        <v>1.000229073855524</v>
       </c>
       <c r="N17">
-        <v>1.010210213865862</v>
+        <v>1.005326908291832</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.011989647146872</v>
+        <v>0.9758488267512548</v>
       </c>
       <c r="D18">
-        <v>1.019140968960345</v>
+        <v>0.9999059661695521</v>
       </c>
       <c r="E18">
-        <v>1.014171160155064</v>
+        <v>0.9867189327266337</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025564690286827</v>
+        <v>1.037812421804623</v>
       </c>
       <c r="J18">
-        <v>1.01825575074422</v>
+        <v>1.003856343325949</v>
       </c>
       <c r="K18">
-        <v>1.02252393782118</v>
+        <v>1.013726322957301</v>
       </c>
       <c r="L18">
-        <v>1.017571944853989</v>
+        <v>1.000770921478428</v>
       </c>
       <c r="N18">
-        <v>1.01024374393882</v>
+        <v>1.005497171924892</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012052641513334</v>
+        <v>0.9761785286722514</v>
       </c>
       <c r="D19">
-        <v>1.019187231529152</v>
+        <v>1.000148076539094</v>
       </c>
       <c r="E19">
-        <v>1.014224018091104</v>
+        <v>0.98697331679901</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02557360151567</v>
+        <v>1.03790016898043</v>
       </c>
       <c r="J19">
-        <v>1.018290588728908</v>
+        <v>1.004032612978649</v>
       </c>
       <c r="K19">
-        <v>1.022555460182337</v>
+        <v>1.013899724770337</v>
       </c>
       <c r="L19">
-        <v>1.01760995548181</v>
+        <v>1.000954987370395</v>
       </c>
       <c r="N19">
-        <v>1.010255173439659</v>
+        <v>1.005554990478513</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.011770926216896</v>
+        <v>0.9746991183032053</v>
       </c>
       <c r="D20">
-        <v>1.01898029365751</v>
+        <v>0.9990616749990572</v>
       </c>
       <c r="E20">
-        <v>1.013987668132235</v>
+        <v>0.9858324467162168</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025533586479708</v>
+        <v>1.03750522353728</v>
       </c>
       <c r="J20">
-        <v>1.018134744894714</v>
+        <v>1.003241432660903</v>
       </c>
       <c r="K20">
-        <v>1.022414388406283</v>
+        <v>1.013121043811523</v>
       </c>
       <c r="L20">
-        <v>1.017439952087456</v>
+        <v>1.000129075638706</v>
       </c>
       <c r="N20">
-        <v>1.010204044656533</v>
+        <v>1.005295476502454</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010855230861673</v>
+        <v>0.9698009365451759</v>
       </c>
       <c r="D21">
-        <v>1.018306811299658</v>
+        <v>0.9954646124203208</v>
       </c>
       <c r="E21">
-        <v>1.013220037391769</v>
+        <v>0.9820656906814641</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025400655190597</v>
+        <v>1.036176349432228</v>
       </c>
       <c r="J21">
-        <v>1.017627382023722</v>
+        <v>1.000617872119085</v>
       </c>
       <c r="K21">
-        <v>1.021954065393395</v>
+        <v>1.010532421579984</v>
       </c>
       <c r="L21">
-        <v>1.016887068915844</v>
+        <v>0.9973949906626531</v>
       </c>
       <c r="N21">
-        <v>1.010037587296891</v>
+        <v>1.004434975267956</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01027964968742</v>
+        <v>0.9666504674258146</v>
       </c>
       <c r="D22">
-        <v>1.017882834536591</v>
+        <v>0.9931513680980768</v>
       </c>
       <c r="E22">
-        <v>1.012737994232426</v>
+        <v>0.9796513854757146</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025314905413665</v>
+        <v>1.035305635863949</v>
       </c>
       <c r="J22">
-        <v>1.017307853689626</v>
+        <v>0.9989275427235614</v>
       </c>
       <c r="K22">
-        <v>1.021663358628423</v>
+        <v>1.008859729646936</v>
       </c>
       <c r="L22">
-        <v>1.016539314410843</v>
+        <v>0.9956370251381333</v>
       </c>
       <c r="N22">
-        <v>1.009932752894315</v>
+        <v>1.00388060554802</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010584761121711</v>
+        <v>0.9683274990670051</v>
       </c>
       <c r="D23">
-        <v>1.018107642359834</v>
+        <v>0.9943826734912479</v>
       </c>
       <c r="E23">
-        <v>1.012993477237327</v>
+        <v>0.9809357333614099</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025360568407746</v>
+        <v>1.035770607788139</v>
       </c>
       <c r="J23">
-        <v>1.017477291410924</v>
+        <v>0.9998275802998344</v>
       </c>
       <c r="K23">
-        <v>1.021817588910869</v>
+        <v>1.009750825119665</v>
       </c>
       <c r="L23">
-        <v>1.016723677962095</v>
+        <v>0.9965727405332742</v>
       </c>
       <c r="N23">
-        <v>1.009988344131177</v>
+        <v>1.004175782738058</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.011786280440464</v>
+        <v>0.9747800800402414</v>
       </c>
       <c r="D24">
-        <v>1.018991575515147</v>
+        <v>0.9991211304584501</v>
       </c>
       <c r="E24">
-        <v>1.014000547540121</v>
+        <v>0.9858948430412985</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025535778220178</v>
+        <v>1.037526917300041</v>
       </c>
       <c r="J24">
-        <v>1.018143241829781</v>
+        <v>1.003284746173301</v>
       </c>
       <c r="K24">
-        <v>1.022422083908971</v>
+        <v>1.013163697629494</v>
       </c>
       <c r="L24">
-        <v>1.017449218853739</v>
+        <v>1.000174273226472</v>
       </c>
       <c r="N24">
-        <v>1.010206832318184</v>
+        <v>1.005309683532979</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013181186791001</v>
+        <v>0.9819785848248025</v>
       </c>
       <c r="D25">
-        <v>1.020014947080753</v>
+        <v>1.004406201017104</v>
       </c>
       <c r="E25">
-        <v>1.015171731469196</v>
+        <v>0.9914606981369356</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025729614177676</v>
+        <v>1.039416871864375</v>
       </c>
       <c r="J25">
-        <v>1.018913690299751</v>
+        <v>1.00712804371832</v>
       </c>
       <c r="K25">
-        <v>1.023117924887494</v>
+        <v>1.016936499309847</v>
       </c>
       <c r="L25">
-        <v>1.018290532726119</v>
+        <v>1.004193038133629</v>
       </c>
       <c r="N25">
-        <v>1.010459593787363</v>
+        <v>1.006570382136581</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,34 +433,40 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9875056942135163</v>
+        <v>1.012427397163468</v>
       </c>
       <c r="D2">
-        <v>1.008460507593308</v>
+        <v>1.029580967166665</v>
       </c>
       <c r="E2">
-        <v>0.9957591249661685</v>
+        <v>1.017197308050836</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040809942800168</v>
+        <v>1.050860526309924</v>
       </c>
       <c r="J2">
-        <v>1.010066639877959</v>
+        <v>1.034242655659945</v>
       </c>
       <c r="K2">
-        <v>1.019803219166501</v>
+        <v>1.040643018470422</v>
       </c>
       <c r="L2">
-        <v>1.007277859819329</v>
+        <v>1.028422145343317</v>
       </c>
       <c r="N2">
-        <v>1.007534416720289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015288783943612</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03980841480658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -456,34 +474,40 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9914031130795397</v>
+        <v>1.016338439300783</v>
       </c>
       <c r="D3">
-        <v>1.011316000344433</v>
+        <v>1.032198620421329</v>
       </c>
       <c r="E3">
-        <v>0.9988036828858072</v>
+        <v>1.020284951199095</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041757418100851</v>
+        <v>1.051998408056016</v>
       </c>
       <c r="J3">
-        <v>1.012130913436942</v>
+        <v>1.036393399089924</v>
       </c>
       <c r="K3">
-        <v>1.021806109674096</v>
+        <v>1.042435445253733</v>
       </c>
       <c r="L3">
-        <v>1.009451893732873</v>
+        <v>1.030664698014449</v>
       </c>
       <c r="N3">
-        <v>1.008211669710696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016005437727368</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.041073152602141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,34 +515,40 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9938740662552427</v>
+        <v>1.018822179522997</v>
       </c>
       <c r="D4">
-        <v>1.013124403108349</v>
+        <v>1.033864384777591</v>
       </c>
       <c r="E4">
-        <v>1.000739929187537</v>
+        <v>1.022251514340127</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042341572284143</v>
+        <v>1.052711208085103</v>
       </c>
       <c r="J4">
-        <v>1.013435782831893</v>
+        <v>1.037756366251449</v>
       </c>
       <c r="K4">
-        <v>1.023066967302798</v>
+        <v>1.043570579492924</v>
       </c>
       <c r="L4">
-        <v>1.010829432111995</v>
+        <v>1.03208860062446</v>
       </c>
       <c r="N4">
-        <v>1.008639794244583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01645980665881</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041876680552716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -526,34 +556,40 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9949010280453282</v>
+        <v>1.019859152926938</v>
       </c>
       <c r="D5">
-        <v>1.013875467866283</v>
+        <v>1.034562766834991</v>
       </c>
       <c r="E5">
-        <v>1.001546063640765</v>
+        <v>1.023074385939267</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042580322436755</v>
+        <v>1.053008020148815</v>
       </c>
       <c r="J5">
-        <v>1.013977140167635</v>
+        <v>1.038326279776767</v>
       </c>
       <c r="K5">
-        <v>1.023588788664461</v>
+        <v>1.044046600270033</v>
       </c>
       <c r="L5">
-        <v>1.01140173203466</v>
+        <v>1.032684252174707</v>
       </c>
       <c r="N5">
-        <v>1.008817416406733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016650430767136</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.042220414986112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,34 +597,40 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.995072776284356</v>
+        <v>1.020037142743111</v>
       </c>
       <c r="D6">
-        <v>1.014001042343869</v>
+        <v>1.034685276764056</v>
       </c>
       <c r="E6">
-        <v>1.001680962402805</v>
+        <v>1.023216282334844</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042620011936221</v>
+        <v>1.053060780878618</v>
       </c>
       <c r="J6">
-        <v>1.014067618644928</v>
+        <v>1.038425984401868</v>
       </c>
       <c r="K6">
-        <v>1.023675926198758</v>
+        <v>1.04413175831098</v>
       </c>
       <c r="L6">
-        <v>1.011497428884047</v>
+        <v>1.032788006094072</v>
       </c>
       <c r="N6">
-        <v>1.008847103094569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016684490278008</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04228934656243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -596,34 +638,40 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9938878345654695</v>
+        <v>1.018848166604012</v>
       </c>
       <c r="D7">
-        <v>1.013134474690489</v>
+        <v>1.033888808196684</v>
       </c>
       <c r="E7">
-        <v>1.000750731402039</v>
+        <v>1.022273691637428</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042344789180752</v>
+        <v>1.052723884076417</v>
       </c>
       <c r="J7">
-        <v>1.013443044575864</v>
+        <v>1.037775802196327</v>
       </c>
       <c r="K7">
-        <v>1.023073972074128</v>
+        <v>1.043591861324034</v>
       </c>
       <c r="L7">
-        <v>1.010837105771925</v>
+        <v>1.032107610669394</v>
       </c>
       <c r="N7">
-        <v>1.008642176844977</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016468229035537</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04191178262118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -631,34 +679,40 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9888336189319789</v>
+        <v>1.013774042734003</v>
       </c>
       <c r="D8">
-        <v>1.009433805409454</v>
+        <v>1.030490058077929</v>
       </c>
       <c r="E8">
-        <v>0.9967951819000145</v>
+        <v>1.018261258383744</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041136195623593</v>
+        <v>1.051260681747499</v>
       </c>
       <c r="J8">
-        <v>1.010770768291998</v>
+        <v>1.034990096813273</v>
       </c>
       <c r="K8">
-        <v>1.020487488305324</v>
+        <v>1.041272272745269</v>
       </c>
       <c r="L8">
-        <v>1.00801874020147</v>
+        <v>1.029199422810748</v>
       </c>
       <c r="N8">
-        <v>1.007765424951944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015540295266384</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.040276209258421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -666,34 +720,40 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9795199174795779</v>
+        <v>1.004437579004822</v>
       </c>
       <c r="D9">
-        <v>1.002601467381981</v>
+        <v>1.024254181176485</v>
       </c>
       <c r="E9">
-        <v>0.9895556151551543</v>
+        <v>1.010922759302285</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038780346030261</v>
+        <v>1.048483858226924</v>
       </c>
       <c r="J9">
-        <v>1.005817202302344</v>
+        <v>1.029834602248235</v>
       </c>
       <c r="K9">
-        <v>1.015652478127966</v>
+        <v>1.036965636532218</v>
       </c>
       <c r="L9">
-        <v>1.002820449029513</v>
+        <v>1.023841073665792</v>
       </c>
       <c r="N9">
-        <v>1.006140375715522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013821450940855</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037227965595801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,34 +761,40 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9730110187029604</v>
+        <v>0.9979401178270427</v>
       </c>
       <c r="D10">
-        <v>0.9978219750556852</v>
+        <v>1.019939085145463</v>
       </c>
       <c r="E10">
-        <v>0.9845324584682589</v>
+        <v>1.005850633227417</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03705083601663</v>
+        <v>1.046503709510523</v>
       </c>
       <c r="J10">
-        <v>1.002337925167785</v>
+        <v>1.026235701699336</v>
       </c>
       <c r="K10">
-        <v>1.012230666083797</v>
+        <v>1.033957429666773</v>
       </c>
       <c r="L10">
-        <v>0.9991867151598689</v>
+        <v>1.020115050109036</v>
       </c>
       <c r="N10">
-        <v>1.004999126586262</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012623690023414</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035117782198548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -736,34 +802,40 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9701153041107072</v>
+        <v>0.9950699379343589</v>
       </c>
       <c r="D11">
-        <v>0.9956954619700056</v>
+        <v>1.018046955090412</v>
       </c>
       <c r="E11">
-        <v>0.9823069607572338</v>
+        <v>1.003621072064988</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036262570940204</v>
+        <v>1.045623562315754</v>
       </c>
       <c r="J11">
-        <v>1.000786424970836</v>
+        <v>1.02464926128664</v>
       </c>
       <c r="K11">
-        <v>1.010699014706508</v>
+        <v>1.03263637276962</v>
       </c>
       <c r="L11">
-        <v>0.9975704373904603</v>
+        <v>1.018475021837476</v>
       </c>
       <c r="N11">
-        <v>1.004490256577526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012098888372661</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.03421660122505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -771,34 +843,40 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9690275248504191</v>
+        <v>0.9939844136262626</v>
       </c>
       <c r="D12">
-        <v>0.9948966880997216</v>
+        <v>1.017327713307744</v>
       </c>
       <c r="E12">
-        <v>0.9814723935842639</v>
+        <v>1.002777910986824</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035963705021067</v>
+        <v>1.045285827389805</v>
       </c>
       <c r="J12">
-        <v>1.000203103540164</v>
+        <v>1.024045564040504</v>
       </c>
       <c r="K12">
-        <v>1.010122316993362</v>
+        <v>1.032130304425527</v>
       </c>
       <c r="L12">
-        <v>0.9969633748710917</v>
+        <v>1.017852083422442</v>
       </c>
       <c r="N12">
-        <v>1.004298942454691</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011897685321336</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033858793743822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,34 +884,40 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9692614179342565</v>
+        <v>0.9942161744180513</v>
       </c>
       <c r="D13">
-        <v>0.9950684357924759</v>
+        <v>1.01748034365777</v>
       </c>
       <c r="E13">
-        <v>0.9816517750857701</v>
+        <v>1.002957611105075</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03602808999103</v>
+        <v>1.045357388400092</v>
       </c>
       <c r="J13">
-        <v>1.000328550424965</v>
+        <v>1.024173824759202</v>
       </c>
       <c r="K13">
-        <v>1.010246376841197</v>
+        <v>1.032237203173613</v>
       </c>
       <c r="L13">
-        <v>0.9970938997377066</v>
+        <v>1.01798452219907</v>
       </c>
       <c r="N13">
-        <v>1.004340085414511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011940124495672</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033931878504235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -841,34 +925,40 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9700256398438905</v>
+        <v>0.994979755136962</v>
       </c>
       <c r="D14">
-        <v>0.9956296184766829</v>
+        <v>1.017986803882488</v>
       </c>
       <c r="E14">
-        <v>0.9822381387447907</v>
+        <v>1.003550888177998</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03623799132144</v>
+        <v>1.045595272255369</v>
       </c>
       <c r="J14">
-        <v>1.000738352383086</v>
+        <v>1.024598838753988</v>
       </c>
       <c r="K14">
-        <v>1.010651504873398</v>
+        <v>1.032593839272375</v>
       </c>
       <c r="L14">
-        <v>0.9975203957990479</v>
+        <v>1.018423030601334</v>
       </c>
       <c r="N14">
-        <v>1.004474489884124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012081952128195</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034185459286751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -876,34 +966,40 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9704948704314518</v>
+        <v>0.9954519004846002</v>
       </c>
       <c r="D15">
-        <v>0.9959741929985738</v>
+        <v>1.018301853298875</v>
       </c>
       <c r="E15">
-        <v>0.9825983569758919</v>
+        <v>1.003918411785225</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036366509478448</v>
+        <v>1.04574338114158</v>
       </c>
       <c r="J15">
-        <v>1.000989905570959</v>
+        <v>1.02486287507806</v>
       </c>
       <c r="K15">
-        <v>1.010900079274237</v>
+        <v>1.032816626427643</v>
       </c>
       <c r="L15">
-        <v>0.9977822773372462</v>
+        <v>1.018695290025004</v>
       </c>
       <c r="N15">
-        <v>1.004556993782672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012170670340454</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034348856623821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -911,34 +1007,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9732015212593145</v>
+        <v>0.9981566427875026</v>
       </c>
       <c r="D16">
-        <v>0.9979618765272907</v>
+        <v>1.020097363754772</v>
       </c>
       <c r="E16">
-        <v>0.9846790661494044</v>
+        <v>1.006023328353933</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037102308101268</v>
+        <v>1.046580714672315</v>
       </c>
       <c r="J16">
-        <v>1.002439923249903</v>
+        <v>1.026366568121388</v>
       </c>
       <c r="K16">
-        <v>1.01233124141691</v>
+        <v>1.034077352665794</v>
       </c>
       <c r="L16">
-        <v>0.9992930569752089</v>
+        <v>1.020248314026105</v>
       </c>
       <c r="N16">
-        <v>1.005032581446587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012672193820598</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035243404807702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -946,34 +1048,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9748782432383042</v>
+        <v>0.9998335858778766</v>
       </c>
       <c r="D17">
-        <v>0.9991932178944263</v>
+        <v>1.021212147895048</v>
       </c>
       <c r="E17">
-        <v>0.9859705023197484</v>
+        <v>1.007330692519585</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037553207897421</v>
+        <v>1.047096903931525</v>
       </c>
       <c r="J17">
-        <v>1.003337259864936</v>
+        <v>1.027298160637506</v>
       </c>
       <c r="K17">
-        <v>1.013215407726147</v>
+        <v>1.034858199947542</v>
       </c>
       <c r="L17">
-        <v>1.000229073855524</v>
+        <v>1.021211397518679</v>
       </c>
       <c r="N17">
-        <v>1.005326908291832</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012982968276462</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035798080347772</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -981,34 +1089,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9758488267512548</v>
+        <v>1.000796316469365</v>
       </c>
       <c r="D18">
-        <v>0.9999059661695521</v>
+        <v>1.021847957997101</v>
       </c>
       <c r="E18">
-        <v>0.9867189327266337</v>
+        <v>1.008080771478984</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037812421804623</v>
+        <v>1.047388822430985</v>
       </c>
       <c r="J18">
-        <v>1.003856343325949</v>
+        <v>1.027829273645991</v>
       </c>
       <c r="K18">
-        <v>1.013726322957301</v>
+        <v>1.035299930669959</v>
       </c>
       <c r="L18">
-        <v>1.000770921478428</v>
+        <v>1.021761463014982</v>
       </c>
       <c r="N18">
-        <v>1.005497171924892</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013158608155542</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036098755093401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1016,34 +1130,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9761785286722514</v>
+        <v>1.001129981614718</v>
       </c>
       <c r="D19">
-        <v>1.000148076539094</v>
+        <v>1.022072087598616</v>
       </c>
       <c r="E19">
-        <v>0.98697331679901</v>
+        <v>1.008341874864928</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03790016898043</v>
+        <v>1.047492423470099</v>
       </c>
       <c r="J19">
-        <v>1.004032612978649</v>
+        <v>1.028015989455178</v>
       </c>
       <c r="K19">
-        <v>1.013899724770337</v>
+        <v>1.035457841363275</v>
       </c>
       <c r="L19">
-        <v>1.000954987370395</v>
+        <v>1.021954374171227</v>
       </c>
       <c r="N19">
-        <v>1.005554990478513</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013221581039357</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036216798231291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1051,34 +1171,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9746991183032053</v>
+        <v>0.9996537267542656</v>
       </c>
       <c r="D20">
-        <v>0.9990616749990572</v>
+        <v>1.021092159202299</v>
       </c>
       <c r="E20">
-        <v>0.9858324467162168</v>
+        <v>1.007190286451166</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03750522353728</v>
+        <v>1.047041392906381</v>
       </c>
       <c r="J20">
-        <v>1.003241432660903</v>
+        <v>1.027198003183171</v>
       </c>
       <c r="K20">
-        <v>1.013121043811523</v>
+        <v>1.034773997625085</v>
       </c>
       <c r="L20">
-        <v>1.000129075638706</v>
+        <v>1.021107870753111</v>
       </c>
       <c r="N20">
-        <v>1.005295476502454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012949432173993</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035737210275163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1086,34 +1212,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9698009365451759</v>
+        <v>0.9947642484818813</v>
       </c>
       <c r="D21">
-        <v>0.9954646124203208</v>
+        <v>1.017848810226919</v>
       </c>
       <c r="E21">
-        <v>0.9820656906814641</v>
+        <v>1.003384829994356</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036176349432228</v>
+        <v>1.045531657254999</v>
       </c>
       <c r="J21">
-        <v>1.000617872119085</v>
+        <v>1.024482517149476</v>
       </c>
       <c r="K21">
-        <v>1.010532421579984</v>
+        <v>1.032499741920467</v>
       </c>
       <c r="L21">
-        <v>0.9973949906626531</v>
+        <v>1.01830235823846</v>
       </c>
       <c r="N21">
-        <v>1.004434975267956</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012044845845869</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034132459227193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1121,34 +1253,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9666504674258146</v>
+        <v>0.9916127080113906</v>
       </c>
       <c r="D22">
-        <v>0.9931513680980768</v>
+        <v>1.015757446249093</v>
       </c>
       <c r="E22">
-        <v>0.9796513854757146</v>
+        <v>1.000938097994355</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035305635863949</v>
+        <v>1.044544514427519</v>
       </c>
       <c r="J22">
-        <v>0.9989275427235614</v>
+        <v>1.022725493366126</v>
       </c>
       <c r="K22">
-        <v>1.008859729646936</v>
+        <v>1.031023077412778</v>
       </c>
       <c r="L22">
-        <v>0.9956370251381333</v>
+        <v>1.016490993858964</v>
       </c>
       <c r="N22">
-        <v>1.00388060554802</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011457593231728</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033074874644792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1156,34 +1294,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9683274990670051</v>
+        <v>0.9932790315541323</v>
       </c>
       <c r="D23">
-        <v>0.9943826734912479</v>
+        <v>1.016856750500886</v>
       </c>
       <c r="E23">
-        <v>0.9809357333614099</v>
+        <v>1.002229293258094</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035770607788139</v>
+        <v>1.045063199836559</v>
       </c>
       <c r="J23">
-        <v>0.9998275802998344</v>
+        <v>1.02365035848871</v>
       </c>
       <c r="K23">
-        <v>1.009750825119665</v>
+        <v>1.031796253188069</v>
       </c>
       <c r="L23">
-        <v>0.9965727405332742</v>
+        <v>1.01744492554219</v>
       </c>
       <c r="N23">
-        <v>1.004175782738058</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011764637331959</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033611896705424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1191,34 +1335,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9747800800402414</v>
+        <v>0.9997171566945828</v>
       </c>
       <c r="D24">
-        <v>0.9991211304584501</v>
+        <v>1.021124584879156</v>
       </c>
       <c r="E24">
-        <v>0.9858948430412985</v>
+        <v>1.007237087226112</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037526917300041</v>
+        <v>1.04705396011135</v>
       </c>
       <c r="J24">
-        <v>1.003284746173301</v>
+        <v>1.02722609878793</v>
       </c>
       <c r="K24">
-        <v>1.013163697629494</v>
+        <v>1.03479061410201</v>
       </c>
       <c r="L24">
-        <v>1.000174273226472</v>
+        <v>1.021138292392223</v>
       </c>
       <c r="N24">
-        <v>1.005309683532979</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012955564200424</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035721548876428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1226,31 +1376,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9819785848248025</v>
+        <v>1.006917101785286</v>
       </c>
       <c r="D25">
-        <v>1.004406201017104</v>
+        <v>1.025917176138622</v>
       </c>
       <c r="E25">
-        <v>0.9914606981369356</v>
+        <v>1.012868631681859</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039416871864375</v>
+        <v>1.049237705054562</v>
       </c>
       <c r="J25">
-        <v>1.00712804371832</v>
+        <v>1.031213899371863</v>
       </c>
       <c r="K25">
-        <v>1.016936499309847</v>
+        <v>1.03812605543696</v>
       </c>
       <c r="L25">
-        <v>1.004193038133629</v>
+        <v>1.02527041003154</v>
       </c>
       <c r="N25">
-        <v>1.006570382136581</v>
+        <v>1.014284405465614</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038077012395498</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,40 +439,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012427397163468</v>
+        <v>1.011589215152662</v>
       </c>
       <c r="D2">
-        <v>1.029580967166665</v>
+        <v>1.028281097723316</v>
       </c>
       <c r="E2">
-        <v>1.017197308050836</v>
+        <v>1.016482174436374</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050860526309924</v>
+        <v>1.050158015578414</v>
       </c>
       <c r="J2">
-        <v>1.034242655659945</v>
+        <v>1.033428735098286</v>
       </c>
       <c r="K2">
-        <v>1.040643018470422</v>
+        <v>1.039360005506314</v>
       </c>
       <c r="L2">
-        <v>1.028422145343317</v>
+        <v>1.027716564454315</v>
       </c>
       <c r="N2">
-        <v>1.015288783943612</v>
+        <v>1.016053453476916</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03980841480658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038909977443768</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02254627682074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -474,40 +489,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016338439300783</v>
+        <v>1.015290212114912</v>
       </c>
       <c r="D3">
-        <v>1.032198620421329</v>
+        <v>1.030654253293362</v>
       </c>
       <c r="E3">
-        <v>1.020284951199095</v>
+        <v>1.019385831795924</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051998408056016</v>
+        <v>1.05114962779746</v>
       </c>
       <c r="J3">
-        <v>1.036393399089924</v>
+        <v>1.035372554976911</v>
       </c>
       <c r="K3">
-        <v>1.042435445253733</v>
+        <v>1.040909374077827</v>
       </c>
       <c r="L3">
-        <v>1.030664698014449</v>
+        <v>1.029776533357838</v>
       </c>
       <c r="N3">
-        <v>1.016005437727368</v>
+        <v>1.016566787960337</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.041073152602141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.040002574915387</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022856904393117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -515,40 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018822179522997</v>
+        <v>1.017641884593554</v>
       </c>
       <c r="D4">
-        <v>1.033864384777591</v>
+        <v>1.032165621184267</v>
       </c>
       <c r="E4">
-        <v>1.022251514340127</v>
+        <v>1.021236550295188</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052711208085103</v>
+        <v>1.051769924876222</v>
       </c>
       <c r="J4">
-        <v>1.037756366251449</v>
+        <v>1.036604827330763</v>
       </c>
       <c r="K4">
-        <v>1.043570579492924</v>
+        <v>1.041890736737429</v>
       </c>
       <c r="L4">
-        <v>1.03208860062446</v>
+        <v>1.031085251052308</v>
       </c>
       <c r="N4">
-        <v>1.01645980665881</v>
+        <v>1.016892414168398</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041876680552716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040697455995473</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023051253850846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -556,40 +589,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019859152926938</v>
+        <v>1.018623931273065</v>
       </c>
       <c r="D5">
-        <v>1.034562766834991</v>
+        <v>1.032799720236119</v>
       </c>
       <c r="E5">
-        <v>1.023074385939267</v>
+        <v>1.022011184229693</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.053008020148815</v>
+        <v>1.052028176057276</v>
       </c>
       <c r="J5">
-        <v>1.038326279776767</v>
+        <v>1.037120257113156</v>
       </c>
       <c r="K5">
-        <v>1.044046600270033</v>
+        <v>1.042302671610912</v>
       </c>
       <c r="L5">
-        <v>1.032684252174707</v>
+        <v>1.031632890502945</v>
       </c>
       <c r="N5">
-        <v>1.016650430767136</v>
+        <v>1.017029078374977</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042220414986112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04099659034541</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023132761122426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -597,81 +639,99 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020037142743111</v>
+        <v>1.018792406267191</v>
       </c>
       <c r="D6">
-        <v>1.034685276764056</v>
+        <v>1.032911181064002</v>
       </c>
       <c r="E6">
-        <v>1.023216282334844</v>
+        <v>1.022144693058228</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.053060780878618</v>
+        <v>1.052074289143366</v>
       </c>
       <c r="J6">
-        <v>1.038425984401868</v>
+        <v>1.037210521130031</v>
       </c>
       <c r="K6">
-        <v>1.04413175831098</v>
+        <v>1.042376812839732</v>
       </c>
       <c r="L6">
-        <v>1.032788006094072</v>
+        <v>1.031728295179528</v>
       </c>
       <c r="N6">
-        <v>1.016684490278008</v>
+        <v>1.017053516341366</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04228934656243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04105860448543</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023148016005565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.018848166604012</v>
+        <v>1.017675867235651</v>
       </c>
       <c r="D7">
-        <v>1.033888808196684</v>
+        <v>1.032195296707392</v>
       </c>
       <c r="E7">
-        <v>1.022273691637428</v>
+        <v>1.021265892379518</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052723884076417</v>
+        <v>1.051786609188353</v>
       </c>
       <c r="J7">
-        <v>1.037775802196327</v>
+        <v>1.036632051373979</v>
       </c>
       <c r="K7">
-        <v>1.043591861324034</v>
+        <v>1.041917204675376</v>
       </c>
       <c r="L7">
-        <v>1.032107610669394</v>
+        <v>1.031111339324667</v>
       </c>
       <c r="N7">
-        <v>1.016468229035537</v>
+        <v>1.016927155177336</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04191178262118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040738231574958</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023058935329165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -679,40 +739,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013774042734003</v>
+        <v>1.012892508149202</v>
       </c>
       <c r="D8">
-        <v>1.030490058077929</v>
+        <v>1.029127000817276</v>
       </c>
       <c r="E8">
-        <v>1.018261258383744</v>
+        <v>1.017508857875063</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.051260681747499</v>
+        <v>1.050523113993927</v>
       </c>
       <c r="J8">
-        <v>1.034990096813273</v>
+        <v>1.034133223431791</v>
       </c>
       <c r="K8">
-        <v>1.041272272745269</v>
+        <v>1.039926369091977</v>
       </c>
       <c r="L8">
-        <v>1.029199422810748</v>
+        <v>1.028456770608639</v>
       </c>
       <c r="N8">
-        <v>1.015540295266384</v>
+        <v>1.016320812120088</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040276209258421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03933557651919</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022664703949232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -720,40 +789,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004437579004822</v>
+        <v>1.004070674577843</v>
       </c>
       <c r="D9">
-        <v>1.024254181176485</v>
+        <v>1.023483474958832</v>
       </c>
       <c r="E9">
-        <v>1.010922759302285</v>
+        <v>1.010620204298749</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048483858226924</v>
+        <v>1.048100257659169</v>
       </c>
       <c r="J9">
-        <v>1.029834602248235</v>
+        <v>1.029480501219776</v>
       </c>
       <c r="K9">
-        <v>1.036965636532218</v>
+        <v>1.036206701887818</v>
       </c>
       <c r="L9">
-        <v>1.023841073665792</v>
+        <v>1.023543294377948</v>
       </c>
       <c r="N9">
-        <v>1.013821450940855</v>
+        <v>1.015101391933964</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037227965595801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036702082871752</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021903919664946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -761,40 +839,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9979401178270427</v>
+        <v>0.9979838574224149</v>
       </c>
       <c r="D10">
-        <v>1.019939085145463</v>
+        <v>1.019617436266713</v>
       </c>
       <c r="E10">
-        <v>1.005850633227417</v>
+        <v>1.005906807388376</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046503709510523</v>
+        <v>1.046391576839426</v>
       </c>
       <c r="J10">
-        <v>1.026235701699336</v>
+        <v>1.026277695845921</v>
       </c>
       <c r="K10">
-        <v>1.033957429666773</v>
+        <v>1.03364130073768</v>
       </c>
       <c r="L10">
-        <v>1.020115050109036</v>
+        <v>1.020170225355542</v>
       </c>
       <c r="N10">
-        <v>1.012623690023414</v>
+        <v>1.014375821367772</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035117782198548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034906676824366</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021370637075975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -802,40 +889,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9950699379343589</v>
+        <v>0.9953665986119161</v>
       </c>
       <c r="D11">
-        <v>1.018046955090412</v>
+        <v>1.01797481393127</v>
       </c>
       <c r="E11">
-        <v>1.003621072064988</v>
+        <v>1.00389972507518</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045623562315754</v>
+        <v>1.045667877306961</v>
       </c>
       <c r="J11">
-        <v>1.02464926128664</v>
+        <v>1.024933410985051</v>
       </c>
       <c r="K11">
-        <v>1.03263637276962</v>
+        <v>1.032565530244463</v>
       </c>
       <c r="L11">
-        <v>1.018475021837476</v>
+        <v>1.018748471120544</v>
       </c>
       <c r="N11">
-        <v>1.012098888372661</v>
+        <v>1.014256003313243</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.03421660122505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034182145930822</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021151238312616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -843,40 +939,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9939844136262626</v>
+        <v>0.9943837654119339</v>
       </c>
       <c r="D12">
-        <v>1.017327713307744</v>
+        <v>1.017354860015161</v>
       </c>
       <c r="E12">
-        <v>1.002777910986824</v>
+        <v>1.003147140305834</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045285827389805</v>
+        <v>1.045392806206523</v>
       </c>
       <c r="J12">
-        <v>1.024045564040504</v>
+        <v>1.024427731056508</v>
       </c>
       <c r="K12">
-        <v>1.032130304425527</v>
+        <v>1.032156953876646</v>
       </c>
       <c r="L12">
-        <v>1.017852083422442</v>
+        <v>1.01821429343466</v>
       </c>
       <c r="N12">
-        <v>1.011897685321336</v>
+        <v>1.014226318679107</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033858793743822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033893274635215</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021066975267304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -884,40 +989,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9942161744180513</v>
+        <v>0.9945933549142759</v>
       </c>
       <c r="D13">
-        <v>1.01748034365777</v>
+        <v>1.017486107704735</v>
       </c>
       <c r="E13">
-        <v>1.002957611105075</v>
+        <v>1.003307307967259</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045357388400092</v>
+        <v>1.045450862261126</v>
       </c>
       <c r="J13">
-        <v>1.024173824759202</v>
+        <v>1.024534844256609</v>
       </c>
       <c r="K13">
-        <v>1.032237203173613</v>
+        <v>1.032242862029674</v>
       </c>
       <c r="L13">
-        <v>1.01798452219907</v>
+        <v>1.018327596339786</v>
       </c>
       <c r="N13">
-        <v>1.011940124495672</v>
+        <v>1.014231437435615</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033931878504235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033951274863012</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021084495884536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -925,40 +1039,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.994979755136962</v>
+        <v>0.9952848307886801</v>
       </c>
       <c r="D14">
-        <v>1.017986803882488</v>
+        <v>1.017922824324399</v>
       </c>
       <c r="E14">
-        <v>1.003550888177998</v>
+        <v>1.003836972573766</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045595272255369</v>
+        <v>1.04564473363837</v>
       </c>
       <c r="J14">
-        <v>1.024598838753988</v>
+        <v>1.024891026960254</v>
       </c>
       <c r="K14">
-        <v>1.032593839272375</v>
+        <v>1.032531013097992</v>
       </c>
       <c r="L14">
-        <v>1.018423030601334</v>
+        <v>1.018703764561279</v>
       </c>
       <c r="N14">
-        <v>1.012081952128195</v>
+        <v>1.014252988656644</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034185459286751</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034156568526357</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021144034621377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -966,40 +1089,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9954519004846002</v>
+        <v>0.9957131879203822</v>
       </c>
       <c r="D15">
-        <v>1.018301853298875</v>
+        <v>1.018195335916655</v>
       </c>
       <c r="E15">
-        <v>1.003918411785225</v>
+        <v>1.004165829377374</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04574338114158</v>
+        <v>1.045766033179748</v>
       </c>
       <c r="J15">
-        <v>1.02486287507806</v>
+        <v>1.025113221510577</v>
       </c>
       <c r="K15">
-        <v>1.032816626427643</v>
+        <v>1.032712014732544</v>
       </c>
       <c r="L15">
-        <v>1.018695290025004</v>
+        <v>1.018938116227701</v>
       </c>
       <c r="N15">
-        <v>1.012170670340454</v>
+        <v>1.014269528271567</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034348856623821</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034290990077848</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02118183399232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1007,40 +1139,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9981566427875026</v>
+        <v>0.9981819413685925</v>
       </c>
       <c r="D16">
-        <v>1.020097363754772</v>
+        <v>1.019757579138731</v>
       </c>
       <c r="E16">
-        <v>1.006023328353933</v>
+        <v>1.006062920488562</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046580714672315</v>
+        <v>1.046457188103441</v>
       </c>
       <c r="J16">
-        <v>1.026366568121388</v>
+        <v>1.026390860977141</v>
       </c>
       <c r="K16">
-        <v>1.034077352665794</v>
+        <v>1.033743379989669</v>
       </c>
       <c r="L16">
-        <v>1.020248314026105</v>
+        <v>1.020287204479631</v>
       </c>
       <c r="N16">
-        <v>1.012672193820598</v>
+        <v>1.014396215227348</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035243404807702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035023667250043</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021395011671625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1048,40 +1189,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9998335858778766</v>
+        <v>0.9997269090140346</v>
       </c>
       <c r="D17">
-        <v>1.021212147895048</v>
+        <v>1.0207379369834</v>
       </c>
       <c r="E17">
-        <v>1.007330692519585</v>
+        <v>1.007254302739438</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047096903931525</v>
+        <v>1.046889987191283</v>
       </c>
       <c r="J17">
-        <v>1.027298160637506</v>
+        <v>1.027195585752371</v>
       </c>
       <c r="K17">
-        <v>1.034858199947542</v>
+        <v>1.034391869524268</v>
       </c>
       <c r="L17">
-        <v>1.021211397518679</v>
+        <v>1.021136322170922</v>
       </c>
       <c r="N17">
-        <v>1.012982968276462</v>
+        <v>1.014512931922632</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035798080347772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035485005733968</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021529353075343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1089,40 +1239,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000796316469365</v>
+        <v>1.000619716665679</v>
       </c>
       <c r="D18">
-        <v>1.021847957997101</v>
+        <v>1.021300660269524</v>
       </c>
       <c r="E18">
-        <v>1.008080771478984</v>
+        <v>1.007943135726522</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047388822430985</v>
+        <v>1.047136970944907</v>
       </c>
       <c r="J18">
-        <v>1.027829273645991</v>
+        <v>1.027659332277818</v>
       </c>
       <c r="K18">
-        <v>1.035299930669959</v>
+        <v>1.034761574100594</v>
       </c>
       <c r="L18">
-        <v>1.021761463014982</v>
+        <v>1.021626154552675</v>
       </c>
       <c r="N18">
-        <v>1.013158608155542</v>
+        <v>1.014592768715335</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036098755093401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035733616705707</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021605005883016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1130,40 +1289,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001129981614718</v>
+        <v>1.000929959298795</v>
       </c>
       <c r="D19">
-        <v>1.022072087598616</v>
+        <v>1.021500097567289</v>
       </c>
       <c r="E19">
-        <v>1.008341874864928</v>
+        <v>1.008183663523636</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047492423470099</v>
+        <v>1.047225434093416</v>
       </c>
       <c r="J19">
-        <v>1.028015989455178</v>
+        <v>1.027823457802375</v>
       </c>
       <c r="K19">
-        <v>1.035457841363275</v>
+        <v>1.034895141079204</v>
       </c>
       <c r="L19">
-        <v>1.021954374171227</v>
+        <v>1.021798821996733</v>
       </c>
       <c r="N19">
-        <v>1.013221581039357</v>
+        <v>1.014624895721186</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036216798231291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035835070028085</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021633209099053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1171,40 +1339,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9996537267542656</v>
+        <v>0.9995606422607106</v>
       </c>
       <c r="D20">
-        <v>1.021092159202299</v>
+        <v>1.020631959676486</v>
       </c>
       <c r="E20">
-        <v>1.007190286451166</v>
+        <v>1.007125839581501</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047041392906381</v>
+        <v>1.046843132588323</v>
       </c>
       <c r="J20">
-        <v>1.027198003183171</v>
+        <v>1.027108510924029</v>
       </c>
       <c r="K20">
-        <v>1.034773997625085</v>
+        <v>1.034321469680942</v>
       </c>
       <c r="L20">
-        <v>1.021107870753111</v>
+        <v>1.021044536365554</v>
       </c>
       <c r="N20">
-        <v>1.012949432173993</v>
+        <v>1.014498676412882</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035737210275163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035433765309633</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021514672714859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1212,40 +1389,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9947642484818813</v>
+        <v>0.9951132405156319</v>
       </c>
       <c r="D21">
-        <v>1.017848810226919</v>
+        <v>1.017821492333856</v>
       </c>
       <c r="E21">
-        <v>1.003384829994356</v>
+        <v>1.003710076165471</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045531657254999</v>
+        <v>1.045605804662704</v>
       </c>
       <c r="J21">
-        <v>1.024482517149476</v>
+        <v>1.024816705570506</v>
       </c>
       <c r="K21">
-        <v>1.032499741920467</v>
+        <v>1.032472918257189</v>
       </c>
       <c r="L21">
-        <v>1.01830235823846</v>
+        <v>1.018621499277474</v>
       </c>
       <c r="N21">
-        <v>1.012044845845869</v>
+        <v>1.014317633152371</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034132459227193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034130335435987</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021134976306189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1253,40 +1439,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9916127080113906</v>
+        <v>0.9922462439006927</v>
       </c>
       <c r="D22">
-        <v>1.015757446249093</v>
+        <v>1.016008457393243</v>
       </c>
       <c r="E22">
-        <v>1.000938097994355</v>
+        <v>1.001514103095583</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044544514427519</v>
+        <v>1.044793242276654</v>
       </c>
       <c r="J22">
-        <v>1.022725493366126</v>
+        <v>1.023330570210192</v>
       </c>
       <c r="K22">
-        <v>1.031023077412778</v>
+        <v>1.031269317223688</v>
       </c>
       <c r="L22">
-        <v>1.016490993858964</v>
+        <v>1.017055624862885</v>
       </c>
       <c r="N22">
-        <v>1.011457593231728</v>
+        <v>1.014186443100297</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033074874644792</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.033264523322432</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020883784984202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1294,40 +1489,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9932790315541323</v>
+        <v>0.9937468677700867</v>
       </c>
       <c r="D23">
-        <v>1.016856750500886</v>
+        <v>1.016949617428905</v>
       </c>
       <c r="E23">
-        <v>1.002229293258094</v>
+        <v>1.00265908992446</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045063199836559</v>
+        <v>1.045211752353577</v>
       </c>
       <c r="J23">
-        <v>1.02365035848871</v>
+        <v>1.02409780307541</v>
       </c>
       <c r="K23">
-        <v>1.031796253188069</v>
+        <v>1.031887400107787</v>
       </c>
       <c r="L23">
-        <v>1.01744492554219</v>
+        <v>1.017866458291002</v>
       </c>
       <c r="N23">
-        <v>1.011764637331959</v>
+        <v>1.014209047454029</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033611896705424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033690944372788</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021010549865545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1335,40 +1539,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9997171566945828</v>
+        <v>0.9996197266091144</v>
       </c>
       <c r="D24">
-        <v>1.021124584879156</v>
+        <v>1.020659604886275</v>
       </c>
       <c r="E24">
-        <v>1.007237087226112</v>
+        <v>1.007169045728237</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04705396011135</v>
+        <v>1.046852815023617</v>
       </c>
       <c r="J24">
-        <v>1.02722609878793</v>
+        <v>1.027132422706984</v>
       </c>
       <c r="K24">
-        <v>1.03479061410201</v>
+        <v>1.034333374861078</v>
       </c>
       <c r="L24">
-        <v>1.021138292392223</v>
+        <v>1.021071423780073</v>
       </c>
       <c r="N24">
-        <v>1.012955564200424</v>
+        <v>1.014498791656465</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035721548876428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035412098261535</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021514935288386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1376,37 +1589,46 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006917101785286</v>
+        <v>1.006399624589681</v>
       </c>
       <c r="D25">
-        <v>1.025917176138622</v>
+        <v>1.024979485978654</v>
       </c>
       <c r="E25">
-        <v>1.012868631681859</v>
+        <v>1.01243412766097</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049237705054562</v>
+        <v>1.0487532714018</v>
       </c>
       <c r="J25">
-        <v>1.031213899371863</v>
+        <v>1.03071351871894</v>
       </c>
       <c r="K25">
-        <v>1.03812605543696</v>
+        <v>1.037202019536127</v>
       </c>
       <c r="L25">
-        <v>1.02527041003154</v>
+        <v>1.024842438257884</v>
       </c>
       <c r="N25">
-        <v>1.014284405465614</v>
+        <v>1.015395804520457</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038077012395498</v>
+        <v>1.037437199883152</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022111195774664</v>
       </c>
     </row>
   </sheetData>
